--- a/TEMP/EMPRESA_998/Kardex del 20250226 al 20250226.xlsx
+++ b/TEMP/EMPRESA_998/Kardex del 20250226 al 20250226.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <t>VACA PRIETO WALTER JALIL</t>
   </si>
@@ -42,7 +42,7 @@
         <sz val="7"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">17:26
+      <t xml:space="preserve">12:03
 </t>
     </r>
     <r>
@@ -67,7 +67,7 @@
         <sz val="7"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">26-02-2025
+      <t xml:space="preserve">04-03-2025
 </t>
     </r>
     <r>
@@ -97,6 +97,309 @@
   </si>
   <si>
     <t>Kardex del 20250226 al 20250226</t>
+  </si>
+  <si>
+    <t>Codigo_Inv</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>Bodega</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t>Salida</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t>Valor_Unitario</t>
+  </si>
+  <si>
+    <t>Valor_Total</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>Factura</t>
+  </si>
+  <si>
+    <t>Cta_Inv</t>
+  </si>
+  <si>
+    <t>Contra_Cta</t>
+  </si>
+  <si>
+    <t>Serie_No</t>
+  </si>
+  <si>
+    <t>Codigo_Barra</t>
+  </si>
+  <si>
+    <t>Lote_No</t>
+  </si>
+  <si>
+    <t>CI_RUC_CC</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>Beneficiario_Centro_Costo</t>
+  </si>
+  <si>
+    <t>Orden_No</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>01.01.01</t>
+  </si>
+  <si>
+    <t>TERRUNO SAUVIGNON BLANC-Valle de Casablanca-Chile</t>
+  </si>
+  <si>
+    <t>U: 750 ml</t>
+  </si>
+  <si>
+    <t>B02.G01.A01</t>
+  </si>
+  <si>
+    <t>2024-04-18</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>1.2.07.01</t>
+  </si>
+  <si>
+    <t>1.1.04.01.01.008</t>
+  </si>
+  <si>
+    <t>0702164179</t>
+  </si>
+  <si>
+    <t>Vaca Prieto Walter Jalil</t>
+  </si>
+  <si>
+    <t>2024-04-23</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>2024-04-25</t>
+  </si>
+  <si>
+    <t>2024-04-26</t>
+  </si>
+  <si>
+    <t>2024-04-29</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>2024-04-30</t>
+  </si>
+  <si>
+    <t>5.2.72</t>
+  </si>
+  <si>
+    <t>2025-01-08</t>
+  </si>
+  <si>
+    <t>01.01.02</t>
+  </si>
+  <si>
+    <t>OSSIAN VERDEJO-Segovia-España</t>
+  </si>
+  <si>
+    <t>2024-04-22</t>
+  </si>
+  <si>
+    <t>01.01.04</t>
+  </si>
+  <si>
+    <t>VEGA SICILIA VALBUENA 5TO-Ribera del Duero-España</t>
+  </si>
+  <si>
+    <t>01.01.14</t>
+  </si>
+  <si>
+    <t>PAGO DE CARRAOVEJAS-Ribera del Duero-España</t>
+  </si>
+  <si>
+    <t>01.02.04</t>
+  </si>
+  <si>
+    <t>JEREZ FINO TIO PEPE MUY SECO-España</t>
+  </si>
+  <si>
+    <t>01.03.001.04</t>
+  </si>
+  <si>
+    <t>FAMILIA GASCON TORRONTES-Mendoza</t>
+  </si>
+  <si>
+    <t>01.03.01.01</t>
+  </si>
+  <si>
+    <t>ALFREDO ROCA FINCAS CHENIN-San Rafael-Mendoza</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>2024-09-05</t>
+  </si>
+  <si>
+    <t>2.1.05.01.12</t>
+  </si>
+  <si>
+    <t>Entrada de inventario por AGROKAVIT S.A de la factura PC_SERIE_001001_11 el dia 2024-09-05</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>Entrada de inventario por ABC de la factura PC_SERIE_001001_12 el dia 2024-09-30</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>Entrada de inventario por ABC de la factura PC_SERIE_001001_15 el dia 2024-10-01</t>
+  </si>
+  <si>
+    <t>Entrada de inventario por ABC de la factura PC_SERIE_001001_13 el dia 2024-10-01</t>
+  </si>
+  <si>
+    <t>Entrada de inventario por ABC de la factura PC_SERIE_001001_14 el dia 2024-10-01</t>
+  </si>
+  <si>
+    <t>Entrada de inventario por ACHIG INGA LUIS GERARDO de la factura PC_SERIE_001001_16 el dia 2024-10-01</t>
+  </si>
+  <si>
+    <t>2024-10-02</t>
+  </si>
+  <si>
+    <t>Entrada de inventario por ABC de la factura PC_SERIE_001001_17 el dia 2024-10-02</t>
+  </si>
+  <si>
+    <t>Entrada de inventario por ABC de la factura PC_SERIE_001001_19 el dia 2024-10-02</t>
+  </si>
+  <si>
+    <t>01.03.01.02</t>
+  </si>
+  <si>
+    <t>EL ENEMIGO CHARDONNAY-Tupungato-Mendoza</t>
+  </si>
+  <si>
+    <t>Entrada de inventario por ACHIG INGA LUIS GERARDO de la factura PC_SERIE_001001_15 el dia 2024-10-01</t>
+  </si>
+  <si>
+    <t>Entrada de inventario por AGROKAVIT S.A de la factura PC_SERIE_001001_13 el dia 2024-10-01</t>
+  </si>
+  <si>
+    <t>Entrada de inventario por ABC de la factura PC_SERIE_001001_16 el dia 2024-10-01</t>
+  </si>
+  <si>
+    <t>01.03.02.02</t>
+  </si>
+  <si>
+    <t>SANTA CAROLINA RESERVA SAUVIGNON BLANC-Valle de Leyda</t>
+  </si>
+  <si>
+    <t>Entrada de inventario por ACHIG INGA LUIS GERARDO de la factura PC_SERIE_001001_17 el dia 2024-10-02</t>
+  </si>
+  <si>
+    <t>01.03.02.03</t>
+  </si>
+  <si>
+    <t>CASILLERO DEL DIABLO SAUVIGNON BLANC-Valle Central</t>
+  </si>
+  <si>
+    <t>ntrada de inventario por ALAVA MENDOZA JEISON STEVEN de la factura PC_SERIE_001001_12 el dia 2024-09</t>
+  </si>
+  <si>
+    <t>01.03.03.02</t>
+  </si>
+  <si>
+    <t>GRANZA VERDEJO-Rueda</t>
+  </si>
+  <si>
+    <t>01.03.03.03</t>
+  </si>
+  <si>
+    <t>MELIOR VERDEJO-Rueda</t>
+  </si>
+  <si>
+    <t>Entrada de inventario por ACHIG INGA LUIS GERARDO de la factura PC_SERIE_001001_14 el dia 2024-10-01</t>
+  </si>
+  <si>
+    <t>01.03.03.04</t>
+  </si>
+  <si>
+    <t>BERONIA VERDEJO- Rueda</t>
+  </si>
+  <si>
+    <t>01.05.03.08</t>
+  </si>
+  <si>
+    <t>ABADIA DE SAN QUIRCE CRIANZA RIBERA DEL DUERO</t>
+  </si>
+  <si>
+    <t>2025-02-14</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>001003</t>
+  </si>
+  <si>
+    <t>FA: ALAVA CARRANZA PAULO JAVIER</t>
+  </si>
+  <si>
+    <t>ALAVA CARRANZA PAULO JAVIER</t>
+  </si>
+  <si>
+    <t>01.05.03.11</t>
+  </si>
+  <si>
+    <t>ABADIA DE SAN QUIRCE ROBLE RIBERA DEL DUERO</t>
   </si>
 </sst>
 </file>
@@ -230,7 +533,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>857250</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -551,24 +854,73 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:AA104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="100" customWidth="true" style="0"/>
-    <col min="2" max="2" width="40" customWidth="true" style="0"/>
+    <col min="1" max="1" width="12" customWidth="true" style="0"/>
+    <col min="2" max="2" width="53" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12" customWidth="true" style="0"/>
+    <col min="5" max="5" width="18" customWidth="true" style="0"/>
+    <col min="6" max="6" width="9" customWidth="true" style="0"/>
+    <col min="7" max="7" width="12" customWidth="true" style="0"/>
+    <col min="8" max="8" width="12" customWidth="true" style="0"/>
+    <col min="9" max="9" width="12" customWidth="true" style="0"/>
+    <col min="10" max="10" width="12" customWidth="true" style="0"/>
+    <col min="11" max="11" width="12" customWidth="true" style="0"/>
+    <col min="12" max="12" width="15" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15" customWidth="true" style="0"/>
+    <col min="14" max="14" width="15" customWidth="true" style="0"/>
+    <col min="15" max="15" width="10" customWidth="true" style="0"/>
+    <col min="16" max="16" width="20" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20" customWidth="true" style="0"/>
+    <col min="18" max="18" width="15" customWidth="true" style="0"/>
+    <col min="19" max="19" width="16" customWidth="true" style="0"/>
+    <col min="20" max="20" width="20" customWidth="true" style="0"/>
+    <col min="21" max="21" width="25" customWidth="true" style="0"/>
+    <col min="22" max="22" width="15" customWidth="true" style="0"/>
+    <col min="23" max="23" width="15" customWidth="true" style="0"/>
+    <col min="24" max="24" width="100" customWidth="true" style="0"/>
+    <col min="25" max="25" width="27" customWidth="true" style="0"/>
+    <col min="26" max="26" width="25" customWidth="true" style="0"/>
+    <col min="27" max="27" width="15" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customHeight="1" ht="45">
+    <row r="1" spans="1:27" customHeight="1" ht="45">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="4" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -592,7 +944,7 @@
               <sz val="7"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">17:26
+            <t xml:space="preserve">12:03
 </t>
           </r>
           <r>
@@ -617,7 +969,7 @@
               <sz val="7"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">26-02-2025
+            <t xml:space="preserve">04-03-2025
 </t>
           </r>
           <r>
@@ -647,15 +999,8482 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>2.0</v>
+      </c>
+      <c r="I4">
+        <v>0.0</v>
+      </c>
+      <c r="J4">
+        <v>2.0</v>
+      </c>
+      <c r="K4">
+        <v>1.12</v>
+      </c>
+      <c r="L4">
+        <v>2.24</v>
+      </c>
+      <c r="M4">
+        <v>1.12</v>
+      </c>
+      <c r="N4">
+        <v>2.24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>41</v>
+      </c>
+      <c r="H5">
+        <v>1.0</v>
+      </c>
+      <c r="I5">
+        <v>0.0</v>
+      </c>
+      <c r="J5">
+        <v>8.0</v>
+      </c>
+      <c r="K5">
+        <v>1.12</v>
+      </c>
+      <c r="L5">
+        <v>1.12</v>
+      </c>
+      <c r="M5">
+        <v>1.12</v>
+      </c>
+      <c r="N5">
+        <v>1.12</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <v>1.0</v>
+      </c>
+      <c r="I6">
+        <v>0.0</v>
+      </c>
+      <c r="J6">
+        <v>9.0</v>
+      </c>
+      <c r="K6">
+        <v>1.12</v>
+      </c>
+      <c r="L6">
+        <v>1.12</v>
+      </c>
+      <c r="M6">
+        <v>1.12</v>
+      </c>
+      <c r="N6">
+        <v>1.12</v>
+      </c>
+      <c r="O6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>4000012</v>
+      </c>
+      <c r="H7">
+        <v>1.0</v>
+      </c>
+      <c r="I7">
+        <v>0.0</v>
+      </c>
+      <c r="J7">
+        <v>11.0</v>
+      </c>
+      <c r="K7">
+        <v>1.12</v>
+      </c>
+      <c r="L7">
+        <v>1.12</v>
+      </c>
+      <c r="M7">
+        <v>1.12</v>
+      </c>
+      <c r="N7">
+        <v>1.12</v>
+      </c>
+      <c r="O7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA7">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1.0</v>
+      </c>
+      <c r="I8">
+        <v>0.0</v>
+      </c>
+      <c r="J8">
+        <v>12.0</v>
+      </c>
+      <c r="K8">
+        <v>1.12</v>
+      </c>
+      <c r="L8">
+        <v>1.12</v>
+      </c>
+      <c r="M8">
+        <v>1.12</v>
+      </c>
+      <c r="N8">
+        <v>1.12</v>
+      </c>
+      <c r="O8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <v>43</v>
+      </c>
+      <c r="H9">
+        <v>1.0</v>
+      </c>
+      <c r="I9">
+        <v>0.0</v>
+      </c>
+      <c r="J9">
+        <v>13.0</v>
+      </c>
+      <c r="K9">
+        <v>1.12</v>
+      </c>
+      <c r="L9">
+        <v>1.12</v>
+      </c>
+      <c r="M9">
+        <v>1.12</v>
+      </c>
+      <c r="N9">
+        <v>1.12</v>
+      </c>
+      <c r="O9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <v>44</v>
+      </c>
+      <c r="H10">
+        <v>1.0</v>
+      </c>
+      <c r="I10">
+        <v>0.0</v>
+      </c>
+      <c r="J10">
+        <v>14.0</v>
+      </c>
+      <c r="K10">
+        <v>1.12</v>
+      </c>
+      <c r="L10">
+        <v>1.12</v>
+      </c>
+      <c r="M10">
+        <v>1.12</v>
+      </c>
+      <c r="N10">
+        <v>1.12</v>
+      </c>
+      <c r="O10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11">
+        <v>4000003</v>
+      </c>
+      <c r="H11">
+        <v>1.0</v>
+      </c>
+      <c r="I11">
+        <v>0.0</v>
+      </c>
+      <c r="J11">
+        <v>15.0</v>
+      </c>
+      <c r="K11">
+        <v>1.12</v>
+      </c>
+      <c r="L11">
+        <v>1.12</v>
+      </c>
+      <c r="M11">
+        <v>1.12</v>
+      </c>
+      <c r="N11">
+        <v>1.12</v>
+      </c>
+      <c r="O11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA11">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>1.0</v>
+      </c>
+      <c r="I12">
+        <v>0.0</v>
+      </c>
+      <c r="J12">
+        <v>16.0</v>
+      </c>
+      <c r="K12">
+        <v>1.12</v>
+      </c>
+      <c r="L12">
+        <v>1.12</v>
+      </c>
+      <c r="M12">
+        <v>1.12</v>
+      </c>
+      <c r="N12">
+        <v>1.12</v>
+      </c>
+      <c r="O12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" t="s">
+        <v>38</v>
+      </c>
+      <c r="T12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" t="s">
+        <v>36</v>
+      </c>
+      <c r="V12" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" t="s">
+        <v>39</v>
+      </c>
+      <c r="X12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA12">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>88</v>
+      </c>
+      <c r="H13">
+        <v>1.0</v>
+      </c>
+      <c r="I13">
+        <v>0.0</v>
+      </c>
+      <c r="J13">
+        <v>17.0</v>
+      </c>
+      <c r="K13">
+        <v>1.12</v>
+      </c>
+      <c r="L13">
+        <v>1.12</v>
+      </c>
+      <c r="M13">
+        <v>1.12</v>
+      </c>
+      <c r="N13">
+        <v>1.12</v>
+      </c>
+      <c r="O13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" t="s">
+        <v>38</v>
+      </c>
+      <c r="T13" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA13">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14">
+        <v>89</v>
+      </c>
+      <c r="H14">
+        <v>1.0</v>
+      </c>
+      <c r="I14">
+        <v>0.0</v>
+      </c>
+      <c r="J14">
+        <v>18.0</v>
+      </c>
+      <c r="K14">
+        <v>1.12</v>
+      </c>
+      <c r="L14">
+        <v>1.12</v>
+      </c>
+      <c r="M14">
+        <v>1.12</v>
+      </c>
+      <c r="N14">
+        <v>1.12</v>
+      </c>
+      <c r="O14" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T14" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" t="s">
+        <v>39</v>
+      </c>
+      <c r="X14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA14">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15">
+        <v>90</v>
+      </c>
+      <c r="H15">
+        <v>1.0</v>
+      </c>
+      <c r="I15">
+        <v>0.0</v>
+      </c>
+      <c r="J15">
+        <v>19.0</v>
+      </c>
+      <c r="K15">
+        <v>1.12</v>
+      </c>
+      <c r="L15">
+        <v>1.12</v>
+      </c>
+      <c r="M15">
+        <v>1.12</v>
+      </c>
+      <c r="N15">
+        <v>1.12</v>
+      </c>
+      <c r="O15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA15">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16">
+        <v>91</v>
+      </c>
+      <c r="H16">
+        <v>1.0</v>
+      </c>
+      <c r="I16">
+        <v>0.0</v>
+      </c>
+      <c r="J16">
+        <v>20.0</v>
+      </c>
+      <c r="K16">
+        <v>1.12</v>
+      </c>
+      <c r="L16">
+        <v>1.12</v>
+      </c>
+      <c r="M16">
+        <v>1.12</v>
+      </c>
+      <c r="N16">
+        <v>1.12</v>
+      </c>
+      <c r="O16" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" t="s">
+        <v>39</v>
+      </c>
+      <c r="X16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA16">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17">
+        <v>92</v>
+      </c>
+      <c r="H17">
+        <v>1.0</v>
+      </c>
+      <c r="I17">
+        <v>0.0</v>
+      </c>
+      <c r="J17">
+        <v>21.0</v>
+      </c>
+      <c r="K17">
+        <v>1.12</v>
+      </c>
+      <c r="L17">
+        <v>1.12</v>
+      </c>
+      <c r="M17">
+        <v>1.12</v>
+      </c>
+      <c r="N17">
+        <v>1.12</v>
+      </c>
+      <c r="O17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" t="s">
+        <v>38</v>
+      </c>
+      <c r="T17" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" t="s">
+        <v>36</v>
+      </c>
+      <c r="V17" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA17">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18">
+        <v>93</v>
+      </c>
+      <c r="H18">
+        <v>1.0</v>
+      </c>
+      <c r="I18">
+        <v>0.0</v>
+      </c>
+      <c r="J18">
+        <v>22.0</v>
+      </c>
+      <c r="K18">
+        <v>1.12</v>
+      </c>
+      <c r="L18">
+        <v>1.12</v>
+      </c>
+      <c r="M18">
+        <v>1.12</v>
+      </c>
+      <c r="N18">
+        <v>1.12</v>
+      </c>
+      <c r="O18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" t="s">
+        <v>38</v>
+      </c>
+      <c r="T18" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" t="s">
+        <v>36</v>
+      </c>
+      <c r="V18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W18" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA18">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19">
+        <v>94</v>
+      </c>
+      <c r="H19">
+        <v>1.0</v>
+      </c>
+      <c r="I19">
+        <v>0.0</v>
+      </c>
+      <c r="J19">
+        <v>23.0</v>
+      </c>
+      <c r="K19">
+        <v>1.12</v>
+      </c>
+      <c r="L19">
+        <v>1.12</v>
+      </c>
+      <c r="M19">
+        <v>1.12</v>
+      </c>
+      <c r="N19">
+        <v>1.12</v>
+      </c>
+      <c r="O19" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>37</v>
+      </c>
+      <c r="S19" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" t="s">
+        <v>39</v>
+      </c>
+      <c r="X19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA19">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20">
+        <v>95</v>
+      </c>
+      <c r="H20">
+        <v>1.0</v>
+      </c>
+      <c r="I20">
+        <v>0.0</v>
+      </c>
+      <c r="J20">
+        <v>24.0</v>
+      </c>
+      <c r="K20">
+        <v>1.12</v>
+      </c>
+      <c r="L20">
+        <v>1.12</v>
+      </c>
+      <c r="M20">
+        <v>1.12</v>
+      </c>
+      <c r="N20">
+        <v>1.12</v>
+      </c>
+      <c r="O20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" t="s">
+        <v>38</v>
+      </c>
+      <c r="T20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W20" t="s">
+        <v>39</v>
+      </c>
+      <c r="X20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA20">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21">
+        <v>96</v>
+      </c>
+      <c r="H21">
+        <v>1.0</v>
+      </c>
+      <c r="I21">
+        <v>0.0</v>
+      </c>
+      <c r="J21">
+        <v>25.0</v>
+      </c>
+      <c r="K21">
+        <v>1.12</v>
+      </c>
+      <c r="L21">
+        <v>1.12</v>
+      </c>
+      <c r="M21">
+        <v>1.12</v>
+      </c>
+      <c r="N21">
+        <v>1.12</v>
+      </c>
+      <c r="O21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S21" t="s">
+        <v>38</v>
+      </c>
+      <c r="T21" t="s">
+        <v>36</v>
+      </c>
+      <c r="U21" t="s">
+        <v>36</v>
+      </c>
+      <c r="V21" t="s">
+        <v>36</v>
+      </c>
+      <c r="W21" t="s">
+        <v>39</v>
+      </c>
+      <c r="X21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA21">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22">
+        <v>97</v>
+      </c>
+      <c r="H22">
+        <v>1.0</v>
+      </c>
+      <c r="I22">
+        <v>0.0</v>
+      </c>
+      <c r="J22">
+        <v>26.0</v>
+      </c>
+      <c r="K22">
+        <v>1.12</v>
+      </c>
+      <c r="L22">
+        <v>1.12</v>
+      </c>
+      <c r="M22">
+        <v>1.12</v>
+      </c>
+      <c r="N22">
+        <v>1.12</v>
+      </c>
+      <c r="O22" t="s">
+        <v>36</v>
+      </c>
+      <c r="P22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>37</v>
+      </c>
+      <c r="S22" t="s">
+        <v>38</v>
+      </c>
+      <c r="T22" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" t="s">
+        <v>36</v>
+      </c>
+      <c r="V22" t="s">
+        <v>36</v>
+      </c>
+      <c r="W22" t="s">
+        <v>39</v>
+      </c>
+      <c r="X22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA22">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23">
+        <v>98</v>
+      </c>
+      <c r="H23">
+        <v>1.0</v>
+      </c>
+      <c r="I23">
+        <v>0.0</v>
+      </c>
+      <c r="J23">
+        <v>27.0</v>
+      </c>
+      <c r="K23">
+        <v>1.12</v>
+      </c>
+      <c r="L23">
+        <v>1.12</v>
+      </c>
+      <c r="M23">
+        <v>1.12</v>
+      </c>
+      <c r="N23">
+        <v>1.12</v>
+      </c>
+      <c r="O23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>37</v>
+      </c>
+      <c r="S23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W23" t="s">
+        <v>39</v>
+      </c>
+      <c r="X23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA23">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24">
+        <v>99</v>
+      </c>
+      <c r="H24">
+        <v>1.0</v>
+      </c>
+      <c r="I24">
+        <v>0.0</v>
+      </c>
+      <c r="J24">
+        <v>28.0</v>
+      </c>
+      <c r="K24">
+        <v>1.12</v>
+      </c>
+      <c r="L24">
+        <v>1.12</v>
+      </c>
+      <c r="M24">
+        <v>1.12</v>
+      </c>
+      <c r="N24">
+        <v>1.12</v>
+      </c>
+      <c r="O24" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>37</v>
+      </c>
+      <c r="S24" t="s">
+        <v>38</v>
+      </c>
+      <c r="T24" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" t="s">
+        <v>39</v>
+      </c>
+      <c r="X24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA24">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>1.0</v>
+      </c>
+      <c r="I25">
+        <v>0.0</v>
+      </c>
+      <c r="J25">
+        <v>29.0</v>
+      </c>
+      <c r="K25">
+        <v>1.12</v>
+      </c>
+      <c r="L25">
+        <v>1.12</v>
+      </c>
+      <c r="M25">
+        <v>1.12</v>
+      </c>
+      <c r="N25">
+        <v>1.12</v>
+      </c>
+      <c r="O25" t="s">
+        <v>36</v>
+      </c>
+      <c r="P25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>37</v>
+      </c>
+      <c r="S25" t="s">
+        <v>38</v>
+      </c>
+      <c r="T25" t="s">
+        <v>36</v>
+      </c>
+      <c r="U25" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25" t="s">
+        <v>39</v>
+      </c>
+      <c r="X25" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA25">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26">
+        <v>101</v>
+      </c>
+      <c r="H26">
+        <v>1.0</v>
+      </c>
+      <c r="I26">
+        <v>0.0</v>
+      </c>
+      <c r="J26">
+        <v>30.0</v>
+      </c>
+      <c r="K26">
+        <v>1.12</v>
+      </c>
+      <c r="L26">
+        <v>1.12</v>
+      </c>
+      <c r="M26">
+        <v>1.12</v>
+      </c>
+      <c r="N26">
+        <v>1.12</v>
+      </c>
+      <c r="O26" t="s">
+        <v>36</v>
+      </c>
+      <c r="P26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
+        <v>37</v>
+      </c>
+      <c r="S26" t="s">
+        <v>38</v>
+      </c>
+      <c r="T26" t="s">
+        <v>36</v>
+      </c>
+      <c r="U26" t="s">
+        <v>36</v>
+      </c>
+      <c r="V26" t="s">
+        <v>36</v>
+      </c>
+      <c r="W26" t="s">
+        <v>39</v>
+      </c>
+      <c r="X26" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA26">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27">
+        <v>102</v>
+      </c>
+      <c r="H27">
+        <v>1.0</v>
+      </c>
+      <c r="I27">
+        <v>0.0</v>
+      </c>
+      <c r="J27">
+        <v>31.0</v>
+      </c>
+      <c r="K27">
+        <v>1.12</v>
+      </c>
+      <c r="L27">
+        <v>1.12</v>
+      </c>
+      <c r="M27">
+        <v>1.12</v>
+      </c>
+      <c r="N27">
+        <v>1.12</v>
+      </c>
+      <c r="O27" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27" t="s">
+        <v>38</v>
+      </c>
+      <c r="T27" t="s">
+        <v>36</v>
+      </c>
+      <c r="U27" t="s">
+        <v>36</v>
+      </c>
+      <c r="V27" t="s">
+        <v>36</v>
+      </c>
+      <c r="W27" t="s">
+        <v>39</v>
+      </c>
+      <c r="X27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA27">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>1.0</v>
+      </c>
+      <c r="I28">
+        <v>0.0</v>
+      </c>
+      <c r="J28">
+        <v>32.0</v>
+      </c>
+      <c r="K28">
+        <v>1.12</v>
+      </c>
+      <c r="L28">
+        <v>1.12</v>
+      </c>
+      <c r="M28">
+        <v>1.12</v>
+      </c>
+      <c r="N28">
+        <v>1.12</v>
+      </c>
+      <c r="O28" t="s">
+        <v>36</v>
+      </c>
+      <c r="P28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
+        <v>37</v>
+      </c>
+      <c r="S28" t="s">
+        <v>38</v>
+      </c>
+      <c r="T28" t="s">
+        <v>36</v>
+      </c>
+      <c r="U28" t="s">
+        <v>36</v>
+      </c>
+      <c r="V28" t="s">
+        <v>36</v>
+      </c>
+      <c r="W28" t="s">
+        <v>39</v>
+      </c>
+      <c r="X28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA28">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>1.0</v>
+      </c>
+      <c r="I29">
+        <v>0.0</v>
+      </c>
+      <c r="J29">
+        <v>33.0</v>
+      </c>
+      <c r="K29">
+        <v>1.12</v>
+      </c>
+      <c r="L29">
+        <v>1.12</v>
+      </c>
+      <c r="M29">
+        <v>1.12</v>
+      </c>
+      <c r="N29">
+        <v>1.12</v>
+      </c>
+      <c r="O29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P29" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29" t="s">
+        <v>37</v>
+      </c>
+      <c r="S29" t="s">
+        <v>38</v>
+      </c>
+      <c r="T29" t="s">
+        <v>36</v>
+      </c>
+      <c r="U29" t="s">
+        <v>36</v>
+      </c>
+      <c r="V29" t="s">
+        <v>36</v>
+      </c>
+      <c r="W29" t="s">
+        <v>39</v>
+      </c>
+      <c r="X29" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA29">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>1.0</v>
+      </c>
+      <c r="I30">
+        <v>0.0</v>
+      </c>
+      <c r="J30">
+        <v>34.0</v>
+      </c>
+      <c r="K30">
+        <v>1.12</v>
+      </c>
+      <c r="L30">
+        <v>1.12</v>
+      </c>
+      <c r="M30">
+        <v>1.12</v>
+      </c>
+      <c r="N30">
+        <v>1.12</v>
+      </c>
+      <c r="O30" t="s">
+        <v>36</v>
+      </c>
+      <c r="P30" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30" t="s">
+        <v>37</v>
+      </c>
+      <c r="S30" t="s">
+        <v>38</v>
+      </c>
+      <c r="T30" t="s">
+        <v>36</v>
+      </c>
+      <c r="U30" t="s">
+        <v>36</v>
+      </c>
+      <c r="V30" t="s">
+        <v>36</v>
+      </c>
+      <c r="W30" t="s">
+        <v>39</v>
+      </c>
+      <c r="X30" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA30">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1.0</v>
+      </c>
+      <c r="I31">
+        <v>0.0</v>
+      </c>
+      <c r="J31">
+        <v>35.0</v>
+      </c>
+      <c r="K31">
+        <v>1.12</v>
+      </c>
+      <c r="L31">
+        <v>1.12</v>
+      </c>
+      <c r="M31">
+        <v>1.12</v>
+      </c>
+      <c r="N31">
+        <v>1.12</v>
+      </c>
+      <c r="O31" t="s">
+        <v>36</v>
+      </c>
+      <c r="P31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31" t="s">
+        <v>37</v>
+      </c>
+      <c r="S31" t="s">
+        <v>38</v>
+      </c>
+      <c r="T31" t="s">
+        <v>36</v>
+      </c>
+      <c r="U31" t="s">
+        <v>36</v>
+      </c>
+      <c r="V31" t="s">
+        <v>36</v>
+      </c>
+      <c r="W31" t="s">
+        <v>39</v>
+      </c>
+      <c r="X31" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA31">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>1.0</v>
+      </c>
+      <c r="I32">
+        <v>0.0</v>
+      </c>
+      <c r="J32">
+        <v>36.0</v>
+      </c>
+      <c r="K32">
+        <v>1.12</v>
+      </c>
+      <c r="L32">
+        <v>1.12</v>
+      </c>
+      <c r="M32">
+        <v>1.12</v>
+      </c>
+      <c r="N32">
+        <v>1.12</v>
+      </c>
+      <c r="O32" t="s">
+        <v>36</v>
+      </c>
+      <c r="P32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32" t="s">
+        <v>37</v>
+      </c>
+      <c r="S32" t="s">
+        <v>38</v>
+      </c>
+      <c r="T32" t="s">
+        <v>36</v>
+      </c>
+      <c r="U32" t="s">
+        <v>36</v>
+      </c>
+      <c r="V32" t="s">
+        <v>36</v>
+      </c>
+      <c r="W32" t="s">
+        <v>39</v>
+      </c>
+      <c r="X32" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA32">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>1.0</v>
+      </c>
+      <c r="I33">
+        <v>0.0</v>
+      </c>
+      <c r="J33">
+        <v>37.0</v>
+      </c>
+      <c r="K33">
+        <v>1.12</v>
+      </c>
+      <c r="L33">
+        <v>1.12</v>
+      </c>
+      <c r="M33">
+        <v>1.12</v>
+      </c>
+      <c r="N33">
+        <v>1.12</v>
+      </c>
+      <c r="O33" t="s">
+        <v>36</v>
+      </c>
+      <c r="P33" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33" t="s">
+        <v>37</v>
+      </c>
+      <c r="S33" t="s">
+        <v>38</v>
+      </c>
+      <c r="T33" t="s">
+        <v>36</v>
+      </c>
+      <c r="U33" t="s">
+        <v>36</v>
+      </c>
+      <c r="V33" t="s">
+        <v>36</v>
+      </c>
+      <c r="W33" t="s">
+        <v>39</v>
+      </c>
+      <c r="X33" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA33">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34">
+        <v>107</v>
+      </c>
+      <c r="H34">
+        <v>0.0</v>
+      </c>
+      <c r="I34">
+        <v>1.0</v>
+      </c>
+      <c r="J34">
+        <v>36.0</v>
+      </c>
+      <c r="K34">
+        <v>1.12</v>
+      </c>
+      <c r="L34">
+        <v>1.12</v>
+      </c>
+      <c r="M34">
+        <v>1.12</v>
+      </c>
+      <c r="N34">
+        <v>1.12</v>
+      </c>
+      <c r="O34" t="s">
+        <v>36</v>
+      </c>
+      <c r="P34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S34" t="s">
+        <v>48</v>
+      </c>
+      <c r="T34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>36</v>
+      </c>
+      <c r="X34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35">
+        <v>108</v>
+      </c>
+      <c r="H35">
+        <v>0.0</v>
+      </c>
+      <c r="I35">
+        <v>1.0</v>
+      </c>
+      <c r="J35">
+        <v>35.0</v>
+      </c>
+      <c r="K35">
+        <v>1.12</v>
+      </c>
+      <c r="L35">
+        <v>1.12</v>
+      </c>
+      <c r="M35">
+        <v>1.12</v>
+      </c>
+      <c r="N35">
+        <v>1.12</v>
+      </c>
+      <c r="O35" t="s">
+        <v>36</v>
+      </c>
+      <c r="P35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35" t="s">
+        <v>37</v>
+      </c>
+      <c r="S35" t="s">
+        <v>48</v>
+      </c>
+      <c r="T35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V35" t="s">
+        <v>36</v>
+      </c>
+      <c r="W35" t="s">
+        <v>36</v>
+      </c>
+      <c r="X35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA35">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36">
+        <v>109</v>
+      </c>
+      <c r="H36">
+        <v>0.0</v>
+      </c>
+      <c r="I36">
+        <v>1.0</v>
+      </c>
+      <c r="J36">
+        <v>34.0</v>
+      </c>
+      <c r="K36">
+        <v>1.12</v>
+      </c>
+      <c r="L36">
+        <v>1.12</v>
+      </c>
+      <c r="M36">
+        <v>1.12</v>
+      </c>
+      <c r="N36">
+        <v>1.12</v>
+      </c>
+      <c r="O36" t="s">
+        <v>36</v>
+      </c>
+      <c r="P36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36" t="s">
+        <v>37</v>
+      </c>
+      <c r="S36" t="s">
+        <v>48</v>
+      </c>
+      <c r="T36" t="s">
+        <v>36</v>
+      </c>
+      <c r="U36" t="s">
+        <v>36</v>
+      </c>
+      <c r="V36" t="s">
+        <v>36</v>
+      </c>
+      <c r="W36" t="s">
+        <v>36</v>
+      </c>
+      <c r="X36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA36">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37">
+        <v>112</v>
+      </c>
+      <c r="H37">
+        <v>0.0</v>
+      </c>
+      <c r="I37">
+        <v>1.0</v>
+      </c>
+      <c r="J37">
+        <v>33.0</v>
+      </c>
+      <c r="K37">
+        <v>1.12</v>
+      </c>
+      <c r="L37">
+        <v>1.12</v>
+      </c>
+      <c r="M37">
+        <v>1.12</v>
+      </c>
+      <c r="N37">
+        <v>1.12</v>
+      </c>
+      <c r="O37" t="s">
+        <v>36</v>
+      </c>
+      <c r="P37" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37" t="s">
+        <v>37</v>
+      </c>
+      <c r="S37" t="s">
+        <v>48</v>
+      </c>
+      <c r="T37" t="s">
+        <v>36</v>
+      </c>
+      <c r="U37" t="s">
+        <v>36</v>
+      </c>
+      <c r="V37" t="s">
+        <v>36</v>
+      </c>
+      <c r="W37" t="s">
+        <v>36</v>
+      </c>
+      <c r="X37" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA37">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38">
+        <v>113</v>
+      </c>
+      <c r="H38">
+        <v>0.0</v>
+      </c>
+      <c r="I38">
+        <v>1.0</v>
+      </c>
+      <c r="J38">
+        <v>32.0</v>
+      </c>
+      <c r="K38">
+        <v>1.12</v>
+      </c>
+      <c r="L38">
+        <v>1.12</v>
+      </c>
+      <c r="M38">
+        <v>1.12</v>
+      </c>
+      <c r="N38">
+        <v>1.12</v>
+      </c>
+      <c r="O38" t="s">
+        <v>36</v>
+      </c>
+      <c r="P38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38" t="s">
+        <v>37</v>
+      </c>
+      <c r="S38" t="s">
+        <v>48</v>
+      </c>
+      <c r="T38" t="s">
+        <v>36</v>
+      </c>
+      <c r="U38" t="s">
+        <v>36</v>
+      </c>
+      <c r="V38" t="s">
+        <v>36</v>
+      </c>
+      <c r="W38" t="s">
+        <v>36</v>
+      </c>
+      <c r="X38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA38">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39">
+        <v>1000001</v>
+      </c>
+      <c r="H39">
+        <v>1.0</v>
+      </c>
+      <c r="I39">
+        <v>0.0</v>
+      </c>
+      <c r="J39">
+        <v>33.0</v>
+      </c>
+      <c r="K39">
+        <v>1.12</v>
+      </c>
+      <c r="L39">
+        <v>1.12</v>
+      </c>
+      <c r="M39">
+        <v>1.12</v>
+      </c>
+      <c r="N39">
+        <v>1.12</v>
+      </c>
+      <c r="O39" t="s">
+        <v>36</v>
+      </c>
+      <c r="P39" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39" t="s">
+        <v>37</v>
+      </c>
+      <c r="S39" t="s">
+        <v>38</v>
+      </c>
+      <c r="T39" t="s">
+        <v>36</v>
+      </c>
+      <c r="U39" t="s">
+        <v>36</v>
+      </c>
+      <c r="V39" t="s">
+        <v>36</v>
+      </c>
+      <c r="W39" t="s">
+        <v>39</v>
+      </c>
+      <c r="X39" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA39">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40">
+        <v>4000010</v>
+      </c>
+      <c r="H40">
+        <v>3.0</v>
+      </c>
+      <c r="I40">
+        <v>0.0</v>
+      </c>
+      <c r="J40">
+        <v>5.0</v>
+      </c>
+      <c r="K40">
+        <v>1.12</v>
+      </c>
+      <c r="L40">
+        <v>3.36</v>
+      </c>
+      <c r="M40">
+        <v>1.12</v>
+      </c>
+      <c r="N40">
+        <v>3.36</v>
+      </c>
+      <c r="O40" t="s">
+        <v>36</v>
+      </c>
+      <c r="P40" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40" t="s">
+        <v>37</v>
+      </c>
+      <c r="S40" t="s">
+        <v>38</v>
+      </c>
+      <c r="T40" t="s">
+        <v>36</v>
+      </c>
+      <c r="U40" t="s">
+        <v>36</v>
+      </c>
+      <c r="V40" t="s">
+        <v>36</v>
+      </c>
+      <c r="W40" t="s">
+        <v>39</v>
+      </c>
+      <c r="X40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA40">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41">
+        <v>4000011</v>
+      </c>
+      <c r="H41">
+        <v>1.0</v>
+      </c>
+      <c r="I41">
+        <v>0.0</v>
+      </c>
+      <c r="J41">
+        <v>1.0</v>
+      </c>
+      <c r="K41">
+        <v>1.12</v>
+      </c>
+      <c r="L41">
+        <v>1.12</v>
+      </c>
+      <c r="M41">
+        <v>1.12</v>
+      </c>
+      <c r="N41">
+        <v>1.12</v>
+      </c>
+      <c r="O41" t="s">
+        <v>36</v>
+      </c>
+      <c r="P41" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41" t="s">
+        <v>37</v>
+      </c>
+      <c r="S41" t="s">
+        <v>38</v>
+      </c>
+      <c r="T41" t="s">
+        <v>36</v>
+      </c>
+      <c r="U41" t="s">
+        <v>36</v>
+      </c>
+      <c r="V41" t="s">
+        <v>36</v>
+      </c>
+      <c r="W41" t="s">
+        <v>39</v>
+      </c>
+      <c r="X41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA41">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42">
+        <v>4000013</v>
+      </c>
+      <c r="H42">
+        <v>1.0</v>
+      </c>
+      <c r="I42">
+        <v>0.0</v>
+      </c>
+      <c r="J42">
+        <v>2.0</v>
+      </c>
+      <c r="K42">
+        <v>1.12</v>
+      </c>
+      <c r="L42">
+        <v>1.12</v>
+      </c>
+      <c r="M42">
+        <v>1.12</v>
+      </c>
+      <c r="N42">
+        <v>1.12</v>
+      </c>
+      <c r="O42" t="s">
+        <v>36</v>
+      </c>
+      <c r="P42" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42" t="s">
+        <v>37</v>
+      </c>
+      <c r="S42" t="s">
+        <v>38</v>
+      </c>
+      <c r="T42" t="s">
+        <v>36</v>
+      </c>
+      <c r="U42" t="s">
+        <v>36</v>
+      </c>
+      <c r="V42" t="s">
+        <v>36</v>
+      </c>
+      <c r="W42" t="s">
+        <v>39</v>
+      </c>
+      <c r="X42" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA42">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43">
+        <v>4000001</v>
+      </c>
+      <c r="H43">
+        <v>1.0</v>
+      </c>
+      <c r="I43">
+        <v>0.0</v>
+      </c>
+      <c r="J43">
+        <v>3.0</v>
+      </c>
+      <c r="K43">
+        <v>1.12</v>
+      </c>
+      <c r="L43">
+        <v>1.12</v>
+      </c>
+      <c r="M43">
+        <v>1.12</v>
+      </c>
+      <c r="N43">
+        <v>1.12</v>
+      </c>
+      <c r="O43" t="s">
+        <v>36</v>
+      </c>
+      <c r="P43" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43" t="s">
+        <v>37</v>
+      </c>
+      <c r="S43" t="s">
+        <v>38</v>
+      </c>
+      <c r="T43" t="s">
+        <v>36</v>
+      </c>
+      <c r="U43" t="s">
+        <v>36</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X43" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44">
+        <v>102</v>
+      </c>
+      <c r="H44">
+        <v>1.0</v>
+      </c>
+      <c r="I44">
+        <v>0.0</v>
+      </c>
+      <c r="J44">
+        <v>4.0</v>
+      </c>
+      <c r="K44">
+        <v>1.12</v>
+      </c>
+      <c r="L44">
+        <v>1.12</v>
+      </c>
+      <c r="M44">
+        <v>1.13</v>
+      </c>
+      <c r="N44">
+        <v>1.13</v>
+      </c>
+      <c r="O44" t="s">
+        <v>36</v>
+      </c>
+      <c r="P44" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44" t="s">
+        <v>37</v>
+      </c>
+      <c r="S44" t="s">
+        <v>38</v>
+      </c>
+      <c r="T44" t="s">
+        <v>36</v>
+      </c>
+      <c r="U44" t="s">
+        <v>36</v>
+      </c>
+      <c r="V44" t="s">
+        <v>36</v>
+      </c>
+      <c r="W44" t="s">
+        <v>39</v>
+      </c>
+      <c r="X44" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA44">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45">
+        <v>4000011</v>
+      </c>
+      <c r="H45">
+        <v>1.0</v>
+      </c>
+      <c r="I45">
+        <v>0.0</v>
+      </c>
+      <c r="J45">
+        <v>10.0</v>
+      </c>
+      <c r="K45">
+        <v>1.12</v>
+      </c>
+      <c r="L45">
+        <v>1.12</v>
+      </c>
+      <c r="M45">
+        <v>1.12</v>
+      </c>
+      <c r="N45">
+        <v>1.12</v>
+      </c>
+      <c r="O45" t="s">
+        <v>36</v>
+      </c>
+      <c r="P45" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45" t="s">
+        <v>37</v>
+      </c>
+      <c r="S45" t="s">
+        <v>38</v>
+      </c>
+      <c r="T45" t="s">
+        <v>36</v>
+      </c>
+      <c r="U45" t="s">
+        <v>36</v>
+      </c>
+      <c r="V45" t="s">
+        <v>36</v>
+      </c>
+      <c r="W45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA45">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46">
+        <v>4000009</v>
+      </c>
+      <c r="H46">
+        <v>2.0</v>
+      </c>
+      <c r="I46">
+        <v>0.0</v>
+      </c>
+      <c r="J46">
+        <v>7.0</v>
+      </c>
+      <c r="K46">
+        <v>1.12</v>
+      </c>
+      <c r="L46">
+        <v>2.24</v>
+      </c>
+      <c r="M46">
+        <v>1.12</v>
+      </c>
+      <c r="N46">
+        <v>2.24</v>
+      </c>
+      <c r="O46" t="s">
+        <v>36</v>
+      </c>
+      <c r="P46" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
+        <v>37</v>
+      </c>
+      <c r="S46" t="s">
+        <v>38</v>
+      </c>
+      <c r="T46" t="s">
+        <v>36</v>
+      </c>
+      <c r="U46" t="s">
+        <v>36</v>
+      </c>
+      <c r="V46" t="s">
+        <v>36</v>
+      </c>
+      <c r="W46" t="s">
+        <v>39</v>
+      </c>
+      <c r="X46" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA46">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47">
+        <v>102</v>
+      </c>
+      <c r="H47">
+        <v>1.0</v>
+      </c>
+      <c r="I47">
+        <v>0.0</v>
+      </c>
+      <c r="J47">
+        <v>0.0</v>
+      </c>
+      <c r="K47">
+        <v>17.26</v>
+      </c>
+      <c r="L47">
+        <v>0.0</v>
+      </c>
+      <c r="M47">
+        <v>1.14</v>
+      </c>
+      <c r="N47">
+        <v>1.14</v>
+      </c>
+      <c r="O47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P47" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47" t="s">
+        <v>37</v>
+      </c>
+      <c r="S47" t="s">
+        <v>38</v>
+      </c>
+      <c r="T47" t="s">
+        <v>36</v>
+      </c>
+      <c r="U47" t="s">
+        <v>36</v>
+      </c>
+      <c r="V47" t="s">
+        <v>36</v>
+      </c>
+      <c r="W47" t="s">
+        <v>39</v>
+      </c>
+      <c r="X47" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA47">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48">
+        <v>103</v>
+      </c>
+      <c r="H48">
+        <v>1.0</v>
+      </c>
+      <c r="I48">
+        <v>0.0</v>
+      </c>
+      <c r="J48">
+        <v>1.0</v>
+      </c>
+      <c r="K48">
+        <v>1.0</v>
+      </c>
+      <c r="L48">
+        <v>1.0</v>
+      </c>
+      <c r="M48">
+        <v>1.0</v>
+      </c>
+      <c r="N48">
+        <v>1.0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>36</v>
+      </c>
+      <c r="P48" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48" t="s">
+        <v>37</v>
+      </c>
+      <c r="S48" t="s">
+        <v>38</v>
+      </c>
+      <c r="T48" t="s">
+        <v>36</v>
+      </c>
+      <c r="U48" t="s">
+        <v>36</v>
+      </c>
+      <c r="V48" t="s">
+        <v>36</v>
+      </c>
+      <c r="W48" t="s">
+        <v>39</v>
+      </c>
+      <c r="X48" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA48">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>1.0</v>
+      </c>
+      <c r="I49">
+        <v>0.0</v>
+      </c>
+      <c r="J49">
+        <v>2.0</v>
+      </c>
+      <c r="K49">
+        <v>1.0</v>
+      </c>
+      <c r="L49">
+        <v>1.0</v>
+      </c>
+      <c r="M49">
+        <v>1.0</v>
+      </c>
+      <c r="N49">
+        <v>1.0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>36</v>
+      </c>
+      <c r="P49" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49" t="s">
+        <v>37</v>
+      </c>
+      <c r="S49" t="s">
+        <v>38</v>
+      </c>
+      <c r="T49" t="s">
+        <v>36</v>
+      </c>
+      <c r="U49" t="s">
+        <v>36</v>
+      </c>
+      <c r="V49" t="s">
+        <v>36</v>
+      </c>
+      <c r="W49" t="s">
+        <v>39</v>
+      </c>
+      <c r="X49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA49">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>1.0</v>
+      </c>
+      <c r="I50">
+        <v>0.0</v>
+      </c>
+      <c r="J50">
+        <v>3.0</v>
+      </c>
+      <c r="K50">
+        <v>1.0</v>
+      </c>
+      <c r="L50">
+        <v>1.0</v>
+      </c>
+      <c r="M50">
+        <v>1.0</v>
+      </c>
+      <c r="N50">
+        <v>1.0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>36</v>
+      </c>
+      <c r="P50" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50" t="s">
+        <v>37</v>
+      </c>
+      <c r="S50" t="s">
+        <v>38</v>
+      </c>
+      <c r="T50" t="s">
+        <v>36</v>
+      </c>
+      <c r="U50" t="s">
+        <v>36</v>
+      </c>
+      <c r="V50" t="s">
+        <v>36</v>
+      </c>
+      <c r="W50" t="s">
+        <v>39</v>
+      </c>
+      <c r="X50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA50">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+      <c r="H51">
+        <v>1.0</v>
+      </c>
+      <c r="I51">
+        <v>0.0</v>
+      </c>
+      <c r="J51">
+        <v>4.0</v>
+      </c>
+      <c r="K51">
+        <v>1.0</v>
+      </c>
+      <c r="L51">
+        <v>1.0</v>
+      </c>
+      <c r="M51">
+        <v>1.0</v>
+      </c>
+      <c r="N51">
+        <v>1.0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>36</v>
+      </c>
+      <c r="P51" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51" t="s">
+        <v>37</v>
+      </c>
+      <c r="S51" t="s">
+        <v>38</v>
+      </c>
+      <c r="T51" t="s">
+        <v>36</v>
+      </c>
+      <c r="U51" t="s">
+        <v>36</v>
+      </c>
+      <c r="V51" t="s">
+        <v>36</v>
+      </c>
+      <c r="W51" t="s">
+        <v>39</v>
+      </c>
+      <c r="X51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA51">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52">
+        <v>103</v>
+      </c>
+      <c r="H52">
+        <v>2.0</v>
+      </c>
+      <c r="I52">
+        <v>0.0</v>
+      </c>
+      <c r="J52">
+        <v>-7.0</v>
+      </c>
+      <c r="K52">
+        <v>17.45</v>
+      </c>
+      <c r="L52">
+        <v>-122.14</v>
+      </c>
+      <c r="M52">
+        <v>1.12</v>
+      </c>
+      <c r="N52">
+        <v>2.24</v>
+      </c>
+      <c r="O52" t="s">
+        <v>36</v>
+      </c>
+      <c r="P52" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52" t="s">
+        <v>37</v>
+      </c>
+      <c r="S52" t="s">
+        <v>38</v>
+      </c>
+      <c r="T52" t="s">
+        <v>36</v>
+      </c>
+      <c r="U52" t="s">
+        <v>36</v>
+      </c>
+      <c r="V52" t="s">
+        <v>36</v>
+      </c>
+      <c r="W52" t="s">
+        <v>39</v>
+      </c>
+      <c r="X52" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA52">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53">
+        <v>104</v>
+      </c>
+      <c r="H53">
+        <v>2.0</v>
+      </c>
+      <c r="I53">
+        <v>0.0</v>
+      </c>
+      <c r="J53">
+        <v>-5.0</v>
+      </c>
+      <c r="K53">
+        <v>23.98</v>
+      </c>
+      <c r="L53">
+        <v>-119.88</v>
+      </c>
+      <c r="M53">
+        <v>1.13</v>
+      </c>
+      <c r="N53">
+        <v>2.26</v>
+      </c>
+      <c r="O53" t="s">
+        <v>36</v>
+      </c>
+      <c r="P53" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53" t="s">
+        <v>37</v>
+      </c>
+      <c r="S53" t="s">
+        <v>38</v>
+      </c>
+      <c r="T53" t="s">
+        <v>36</v>
+      </c>
+      <c r="U53" t="s">
+        <v>36</v>
+      </c>
+      <c r="V53" t="s">
+        <v>36</v>
+      </c>
+      <c r="W53" t="s">
+        <v>39</v>
+      </c>
+      <c r="X53" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA53">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>2.0</v>
+      </c>
+      <c r="I54">
+        <v>0.0</v>
+      </c>
+      <c r="J54">
+        <v>-3.0</v>
+      </c>
+      <c r="K54">
+        <v>39.21</v>
+      </c>
+      <c r="L54">
+        <v>-117.64</v>
+      </c>
+      <c r="M54">
+        <v>1.12</v>
+      </c>
+      <c r="N54">
+        <v>2.24</v>
+      </c>
+      <c r="O54" t="s">
+        <v>36</v>
+      </c>
+      <c r="P54" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54" t="s">
+        <v>37</v>
+      </c>
+      <c r="S54" t="s">
+        <v>38</v>
+      </c>
+      <c r="T54" t="s">
+        <v>36</v>
+      </c>
+      <c r="U54" t="s">
+        <v>36</v>
+      </c>
+      <c r="V54" t="s">
+        <v>36</v>
+      </c>
+      <c r="W54" t="s">
+        <v>39</v>
+      </c>
+      <c r="X54" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA54">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>2.0</v>
+      </c>
+      <c r="I55">
+        <v>0.0</v>
+      </c>
+      <c r="J55">
+        <v>-1.0</v>
+      </c>
+      <c r="K55">
+        <v>115.4</v>
+      </c>
+      <c r="L55">
+        <v>-115.4</v>
+      </c>
+      <c r="M55">
+        <v>1.12</v>
+      </c>
+      <c r="N55">
+        <v>2.24</v>
+      </c>
+      <c r="O55" t="s">
+        <v>36</v>
+      </c>
+      <c r="P55" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55" t="s">
+        <v>37</v>
+      </c>
+      <c r="S55" t="s">
+        <v>38</v>
+      </c>
+      <c r="T55" t="s">
+        <v>36</v>
+      </c>
+      <c r="U55" t="s">
+        <v>36</v>
+      </c>
+      <c r="V55" t="s">
+        <v>36</v>
+      </c>
+      <c r="W55" t="s">
+        <v>39</v>
+      </c>
+      <c r="X55" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA55">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" t="s">
+        <v>46</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>2.0</v>
+      </c>
+      <c r="I56">
+        <v>0.0</v>
+      </c>
+      <c r="J56">
+        <v>1.0</v>
+      </c>
+      <c r="K56">
+        <v>113.16</v>
+      </c>
+      <c r="L56">
+        <v>-113.16</v>
+      </c>
+      <c r="M56">
+        <v>1.12</v>
+      </c>
+      <c r="N56">
+        <v>2.24</v>
+      </c>
+      <c r="O56" t="s">
+        <v>36</v>
+      </c>
+      <c r="P56" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56" t="s">
+        <v>37</v>
+      </c>
+      <c r="S56" t="s">
+        <v>38</v>
+      </c>
+      <c r="T56" t="s">
+        <v>36</v>
+      </c>
+      <c r="U56" t="s">
+        <v>36</v>
+      </c>
+      <c r="V56" t="s">
+        <v>36</v>
+      </c>
+      <c r="W56" t="s">
+        <v>39</v>
+      </c>
+      <c r="X56" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA56">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57">
+        <v>104</v>
+      </c>
+      <c r="H57">
+        <v>1.0</v>
+      </c>
+      <c r="I57">
+        <v>0.0</v>
+      </c>
+      <c r="J57">
+        <v>2.0</v>
+      </c>
+      <c r="K57">
+        <v>56.02</v>
+      </c>
+      <c r="L57">
+        <v>-112.04</v>
+      </c>
+      <c r="M57">
+        <v>1.12</v>
+      </c>
+      <c r="N57">
+        <v>1.12</v>
+      </c>
+      <c r="O57" t="s">
+        <v>36</v>
+      </c>
+      <c r="P57" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57" t="s">
+        <v>37</v>
+      </c>
+      <c r="S57" t="s">
+        <v>38</v>
+      </c>
+      <c r="T57" t="s">
+        <v>36</v>
+      </c>
+      <c r="U57" t="s">
+        <v>36</v>
+      </c>
+      <c r="V57" t="s">
+        <v>36</v>
+      </c>
+      <c r="W57" t="s">
+        <v>39</v>
+      </c>
+      <c r="X57" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA57">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58">
+        <v>9000827</v>
+      </c>
+      <c r="H58">
+        <v>3.0</v>
+      </c>
+      <c r="I58">
+        <v>0.0</v>
+      </c>
+      <c r="J58">
+        <v>5.0</v>
+      </c>
+      <c r="K58">
+        <v>45.49</v>
+      </c>
+      <c r="L58">
+        <v>227.44</v>
+      </c>
+      <c r="M58">
+        <v>113.16</v>
+      </c>
+      <c r="N58">
+        <v>339.48</v>
+      </c>
+      <c r="O58" t="s">
+        <v>36</v>
+      </c>
+      <c r="P58" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58" t="s">
+        <v>36</v>
+      </c>
+      <c r="S58" t="s">
+        <v>65</v>
+      </c>
+      <c r="T58" t="s">
+        <v>36</v>
+      </c>
+      <c r="U58" t="s">
+        <v>36</v>
+      </c>
+      <c r="V58" t="s">
+        <v>36</v>
+      </c>
+      <c r="W58" t="s">
+        <v>39</v>
+      </c>
+      <c r="X58" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA58">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59">
+        <v>9000827</v>
+      </c>
+      <c r="H59">
+        <v>3.0</v>
+      </c>
+      <c r="I59">
+        <v>0.0</v>
+      </c>
+      <c r="J59">
+        <v>8.0</v>
+      </c>
+      <c r="K59">
+        <v>70.87</v>
+      </c>
+      <c r="L59">
+        <v>566.92</v>
+      </c>
+      <c r="M59">
+        <v>113.16</v>
+      </c>
+      <c r="N59">
+        <v>339.48</v>
+      </c>
+      <c r="O59" t="s">
+        <v>36</v>
+      </c>
+      <c r="P59" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59" t="s">
+        <v>36</v>
+      </c>
+      <c r="S59" t="s">
+        <v>65</v>
+      </c>
+      <c r="T59" t="s">
+        <v>36</v>
+      </c>
+      <c r="U59" t="s">
+        <v>36</v>
+      </c>
+      <c r="V59" t="s">
+        <v>36</v>
+      </c>
+      <c r="W59" t="s">
+        <v>39</v>
+      </c>
+      <c r="X59" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA59">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60">
+        <v>9000008</v>
+      </c>
+      <c r="H60">
+        <v>3.0</v>
+      </c>
+      <c r="I60">
+        <v>0.0</v>
+      </c>
+      <c r="J60">
+        <v>11.0</v>
+      </c>
+      <c r="K60">
+        <v>82.4</v>
+      </c>
+      <c r="L60">
+        <v>906.4</v>
+      </c>
+      <c r="M60">
+        <v>113.16</v>
+      </c>
+      <c r="N60">
+        <v>339.48</v>
+      </c>
+      <c r="O60" t="s">
+        <v>36</v>
+      </c>
+      <c r="P60" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60" t="s">
+        <v>36</v>
+      </c>
+      <c r="S60" t="s">
+        <v>36</v>
+      </c>
+      <c r="T60" t="s">
+        <v>36</v>
+      </c>
+      <c r="U60" t="s">
+        <v>36</v>
+      </c>
+      <c r="V60" t="s">
+        <v>36</v>
+      </c>
+      <c r="W60" t="s">
+        <v>39</v>
+      </c>
+      <c r="X60" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA60">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61">
+        <v>9000821</v>
+      </c>
+      <c r="H61">
+        <v>3.0</v>
+      </c>
+      <c r="I61">
+        <v>0.0</v>
+      </c>
+      <c r="J61">
+        <v>14.0</v>
+      </c>
+      <c r="K61">
+        <v>88.99</v>
+      </c>
+      <c r="L61">
+        <v>1245.88</v>
+      </c>
+      <c r="M61">
+        <v>113.16</v>
+      </c>
+      <c r="N61">
+        <v>339.48</v>
+      </c>
+      <c r="O61" t="s">
+        <v>36</v>
+      </c>
+      <c r="P61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61" t="s">
+        <v>36</v>
+      </c>
+      <c r="S61" t="s">
+        <v>36</v>
+      </c>
+      <c r="T61" t="s">
+        <v>36</v>
+      </c>
+      <c r="U61" t="s">
+        <v>36</v>
+      </c>
+      <c r="V61" t="s">
+        <v>36</v>
+      </c>
+      <c r="W61" t="s">
+        <v>39</v>
+      </c>
+      <c r="X61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA61">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62">
+        <v>9000822</v>
+      </c>
+      <c r="H62">
+        <v>3.0</v>
+      </c>
+      <c r="I62">
+        <v>0.0</v>
+      </c>
+      <c r="J62">
+        <v>17.0</v>
+      </c>
+      <c r="K62">
+        <v>93.26</v>
+      </c>
+      <c r="L62">
+        <v>1585.36</v>
+      </c>
+      <c r="M62">
+        <v>113.16</v>
+      </c>
+      <c r="N62">
+        <v>339.48</v>
+      </c>
+      <c r="O62" t="s">
+        <v>36</v>
+      </c>
+      <c r="P62" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62" t="s">
+        <v>36</v>
+      </c>
+      <c r="S62" t="s">
+        <v>36</v>
+      </c>
+      <c r="T62" t="s">
+        <v>36</v>
+      </c>
+      <c r="U62" t="s">
+        <v>36</v>
+      </c>
+      <c r="V62" t="s">
+        <v>36</v>
+      </c>
+      <c r="W62" t="s">
+        <v>39</v>
+      </c>
+      <c r="X62" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA62">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63">
+        <v>9000823</v>
+      </c>
+      <c r="H63">
+        <v>3.0</v>
+      </c>
+      <c r="I63">
+        <v>0.0</v>
+      </c>
+      <c r="J63">
+        <v>20.0</v>
+      </c>
+      <c r="K63">
+        <v>96.24</v>
+      </c>
+      <c r="L63">
+        <v>1924.84</v>
+      </c>
+      <c r="M63">
+        <v>113.16</v>
+      </c>
+      <c r="N63">
+        <v>339.48</v>
+      </c>
+      <c r="O63" t="s">
+        <v>36</v>
+      </c>
+      <c r="P63" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63" t="s">
+        <v>36</v>
+      </c>
+      <c r="S63" t="s">
+        <v>36</v>
+      </c>
+      <c r="T63" t="s">
+        <v>36</v>
+      </c>
+      <c r="U63" t="s">
+        <v>36</v>
+      </c>
+      <c r="V63" t="s">
+        <v>36</v>
+      </c>
+      <c r="W63" t="s">
+        <v>39</v>
+      </c>
+      <c r="X63" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA63">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64">
+        <v>9000824</v>
+      </c>
+      <c r="H64">
+        <v>3.0</v>
+      </c>
+      <c r="I64">
+        <v>0.0</v>
+      </c>
+      <c r="J64">
+        <v>23.0</v>
+      </c>
+      <c r="K64">
+        <v>98.45</v>
+      </c>
+      <c r="L64">
+        <v>2264.32</v>
+      </c>
+      <c r="M64">
+        <v>113.16</v>
+      </c>
+      <c r="N64">
+        <v>339.48</v>
+      </c>
+      <c r="O64" t="s">
+        <v>36</v>
+      </c>
+      <c r="P64" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64" t="s">
+        <v>36</v>
+      </c>
+      <c r="S64" t="s">
+        <v>36</v>
+      </c>
+      <c r="T64" t="s">
+        <v>36</v>
+      </c>
+      <c r="U64" t="s">
+        <v>36</v>
+      </c>
+      <c r="V64" t="s">
+        <v>36</v>
+      </c>
+      <c r="W64" t="s">
+        <v>39</v>
+      </c>
+      <c r="X64" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA64">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
+      <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65">
+        <v>9000825</v>
+      </c>
+      <c r="H65">
+        <v>3.0</v>
+      </c>
+      <c r="I65">
+        <v>0.0</v>
+      </c>
+      <c r="J65">
+        <v>26.0</v>
+      </c>
+      <c r="K65">
+        <v>100.15</v>
+      </c>
+      <c r="L65">
+        <v>2603.8</v>
+      </c>
+      <c r="M65">
+        <v>113.16</v>
+      </c>
+      <c r="N65">
+        <v>339.48</v>
+      </c>
+      <c r="O65" t="s">
+        <v>36</v>
+      </c>
+      <c r="P65" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65" t="s">
+        <v>36</v>
+      </c>
+      <c r="S65" t="s">
+        <v>36</v>
+      </c>
+      <c r="T65" t="s">
+        <v>36</v>
+      </c>
+      <c r="U65" t="s">
+        <v>36</v>
+      </c>
+      <c r="V65" t="s">
+        <v>36</v>
+      </c>
+      <c r="W65" t="s">
+        <v>39</v>
+      </c>
+      <c r="X65" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA65">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" t="s">
+        <v>69</v>
+      </c>
+      <c r="F66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66">
+        <v>10000825</v>
+      </c>
+      <c r="H66">
+        <v>15.0</v>
+      </c>
+      <c r="I66">
+        <v>0.0</v>
+      </c>
+      <c r="J66">
+        <v>41.0</v>
+      </c>
+      <c r="K66">
+        <v>100.15</v>
+      </c>
+      <c r="L66">
+        <v>4106.05</v>
+      </c>
+      <c r="M66">
+        <v>100.15</v>
+      </c>
+      <c r="N66">
+        <v>1502.25</v>
+      </c>
+      <c r="O66" t="s">
+        <v>36</v>
+      </c>
+      <c r="P66" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66" t="s">
+        <v>37</v>
+      </c>
+      <c r="S66" t="s">
+        <v>65</v>
+      </c>
+      <c r="T66" t="s">
+        <v>36</v>
+      </c>
+      <c r="U66" t="s">
+        <v>36</v>
+      </c>
+      <c r="V66" t="s">
+        <v>36</v>
+      </c>
+      <c r="W66" t="s">
+        <v>39</v>
+      </c>
+      <c r="X66" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA66">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
+      <c r="A67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67">
+        <v>38</v>
+      </c>
+      <c r="H67">
+        <v>6.0</v>
+      </c>
+      <c r="I67">
+        <v>0.0</v>
+      </c>
+      <c r="J67">
+        <v>47.0</v>
+      </c>
+      <c r="K67">
+        <v>100.15</v>
+      </c>
+      <c r="L67">
+        <v>4706.95</v>
+      </c>
+      <c r="M67">
+        <v>100.15</v>
+      </c>
+      <c r="N67">
+        <v>600.9</v>
+      </c>
+      <c r="O67" t="s">
+        <v>36</v>
+      </c>
+      <c r="P67" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67" t="s">
+        <v>36</v>
+      </c>
+      <c r="S67" t="s">
+        <v>65</v>
+      </c>
+      <c r="T67" t="s">
+        <v>36</v>
+      </c>
+      <c r="U67" t="s">
+        <v>36</v>
+      </c>
+      <c r="V67" t="s">
+        <v>36</v>
+      </c>
+      <c r="W67" t="s">
+        <v>39</v>
+      </c>
+      <c r="X67" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA67">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
+      <c r="A68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" t="s">
+        <v>69</v>
+      </c>
+      <c r="F68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68">
+        <v>10000817</v>
+      </c>
+      <c r="H68">
+        <v>6.0</v>
+      </c>
+      <c r="I68">
+        <v>0.0</v>
+      </c>
+      <c r="J68">
+        <v>53.0</v>
+      </c>
+      <c r="K68">
+        <v>100.15</v>
+      </c>
+      <c r="L68">
+        <v>5307.85</v>
+      </c>
+      <c r="M68">
+        <v>100.15</v>
+      </c>
+      <c r="N68">
+        <v>600.9</v>
+      </c>
+      <c r="O68" t="s">
+        <v>36</v>
+      </c>
+      <c r="P68" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68" t="s">
+        <v>36</v>
+      </c>
+      <c r="S68" t="s">
+        <v>65</v>
+      </c>
+      <c r="T68" t="s">
+        <v>36</v>
+      </c>
+      <c r="U68" t="s">
+        <v>36</v>
+      </c>
+      <c r="V68" t="s">
+        <v>36</v>
+      </c>
+      <c r="W68" t="s">
+        <v>39</v>
+      </c>
+      <c r="X68" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA68">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
+      <c r="A69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" t="s">
+        <v>69</v>
+      </c>
+      <c r="F69" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69">
+        <v>10000823</v>
+      </c>
+      <c r="H69">
+        <v>6.0</v>
+      </c>
+      <c r="I69">
+        <v>0.0</v>
+      </c>
+      <c r="J69">
+        <v>59.0</v>
+      </c>
+      <c r="K69">
+        <v>100.15</v>
+      </c>
+      <c r="L69">
+        <v>5908.75</v>
+      </c>
+      <c r="M69">
+        <v>100.15</v>
+      </c>
+      <c r="N69">
+        <v>600.9</v>
+      </c>
+      <c r="O69" t="s">
+        <v>36</v>
+      </c>
+      <c r="P69" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69" t="s">
+        <v>37</v>
+      </c>
+      <c r="S69" t="s">
+        <v>65</v>
+      </c>
+      <c r="T69" t="s">
+        <v>36</v>
+      </c>
+      <c r="U69" t="s">
+        <v>36</v>
+      </c>
+      <c r="V69" t="s">
+        <v>36</v>
+      </c>
+      <c r="W69" t="s">
+        <v>39</v>
+      </c>
+      <c r="X69" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA69">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27">
+      <c r="A70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70">
+        <v>10000828</v>
+      </c>
+      <c r="H70">
+        <v>3.0</v>
+      </c>
+      <c r="I70">
+        <v>0.0</v>
+      </c>
+      <c r="J70">
+        <v>62.0</v>
+      </c>
+      <c r="K70">
+        <v>100.15</v>
+      </c>
+      <c r="L70">
+        <v>6209.2</v>
+      </c>
+      <c r="M70">
+        <v>100.15</v>
+      </c>
+      <c r="N70">
+        <v>300.45</v>
+      </c>
+      <c r="O70" t="s">
+        <v>36</v>
+      </c>
+      <c r="P70" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70" t="s">
+        <v>37</v>
+      </c>
+      <c r="S70" t="s">
+        <v>65</v>
+      </c>
+      <c r="T70" t="s">
+        <v>36</v>
+      </c>
+      <c r="U70" t="s">
+        <v>36</v>
+      </c>
+      <c r="V70" t="s">
+        <v>36</v>
+      </c>
+      <c r="W70" t="s">
+        <v>39</v>
+      </c>
+      <c r="X70" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA70">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
+      <c r="A71" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71">
+        <v>10000836</v>
+      </c>
+      <c r="H71">
+        <v>3.0</v>
+      </c>
+      <c r="I71">
+        <v>0.0</v>
+      </c>
+      <c r="J71">
+        <v>65.0</v>
+      </c>
+      <c r="K71">
+        <v>100.15</v>
+      </c>
+      <c r="L71">
+        <v>6509.65</v>
+      </c>
+      <c r="M71">
+        <v>100.15</v>
+      </c>
+      <c r="N71">
+        <v>300.45</v>
+      </c>
+      <c r="O71" t="s">
+        <v>36</v>
+      </c>
+      <c r="P71" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71" t="s">
+        <v>37</v>
+      </c>
+      <c r="S71" t="s">
+        <v>65</v>
+      </c>
+      <c r="T71" t="s">
+        <v>36</v>
+      </c>
+      <c r="U71" t="s">
+        <v>36</v>
+      </c>
+      <c r="V71" t="s">
+        <v>36</v>
+      </c>
+      <c r="W71" t="s">
+        <v>39</v>
+      </c>
+      <c r="X71" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA71">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
+      <c r="A72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72">
+        <v>10000838</v>
+      </c>
+      <c r="H72">
+        <v>3.0</v>
+      </c>
+      <c r="I72">
+        <v>0.0</v>
+      </c>
+      <c r="J72">
+        <v>68.0</v>
+      </c>
+      <c r="K72">
+        <v>100.15</v>
+      </c>
+      <c r="L72">
+        <v>6810.1</v>
+      </c>
+      <c r="M72">
+        <v>100.15</v>
+      </c>
+      <c r="N72">
+        <v>300.45</v>
+      </c>
+      <c r="O72" t="s">
+        <v>36</v>
+      </c>
+      <c r="P72" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72" t="s">
+        <v>37</v>
+      </c>
+      <c r="S72" t="s">
+        <v>65</v>
+      </c>
+      <c r="T72" t="s">
+        <v>36</v>
+      </c>
+      <c r="U72" t="s">
+        <v>36</v>
+      </c>
+      <c r="V72" t="s">
+        <v>36</v>
+      </c>
+      <c r="W72" t="s">
+        <v>39</v>
+      </c>
+      <c r="X72" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA72">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
+      <c r="A73" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73">
+        <v>10000840</v>
+      </c>
+      <c r="H73">
+        <v>2.0</v>
+      </c>
+      <c r="I73">
+        <v>0.0</v>
+      </c>
+      <c r="J73">
+        <v>70.0</v>
+      </c>
+      <c r="K73">
+        <v>100.15</v>
+      </c>
+      <c r="L73">
+        <v>7010.4</v>
+      </c>
+      <c r="M73">
+        <v>100.15</v>
+      </c>
+      <c r="N73">
+        <v>200.3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>36</v>
+      </c>
+      <c r="P73" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73" t="s">
+        <v>37</v>
+      </c>
+      <c r="S73" t="s">
+        <v>65</v>
+      </c>
+      <c r="T73" t="s">
+        <v>36</v>
+      </c>
+      <c r="U73" t="s">
+        <v>36</v>
+      </c>
+      <c r="V73" t="s">
+        <v>36</v>
+      </c>
+      <c r="W73" t="s">
+        <v>39</v>
+      </c>
+      <c r="X73" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA73">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
+      <c r="A74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74">
+        <v>10000841</v>
+      </c>
+      <c r="H74">
+        <v>2.0</v>
+      </c>
+      <c r="I74">
+        <v>0.0</v>
+      </c>
+      <c r="J74">
+        <v>72.0</v>
+      </c>
+      <c r="K74">
+        <v>100.15</v>
+      </c>
+      <c r="L74">
+        <v>7210.7</v>
+      </c>
+      <c r="M74">
+        <v>100.15</v>
+      </c>
+      <c r="N74">
+        <v>200.3</v>
+      </c>
+      <c r="O74" t="s">
+        <v>36</v>
+      </c>
+      <c r="P74" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74" t="s">
+        <v>37</v>
+      </c>
+      <c r="S74" t="s">
+        <v>65</v>
+      </c>
+      <c r="T74" t="s">
+        <v>36</v>
+      </c>
+      <c r="U74" t="s">
+        <v>36</v>
+      </c>
+      <c r="V74" t="s">
+        <v>36</v>
+      </c>
+      <c r="W74" t="s">
+        <v>39</v>
+      </c>
+      <c r="X74" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA74">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
+      <c r="A75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75" t="s">
+        <v>74</v>
+      </c>
+      <c r="F75" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75">
+        <v>10000842</v>
+      </c>
+      <c r="H75">
+        <v>2.0</v>
+      </c>
+      <c r="I75">
+        <v>0.0</v>
+      </c>
+      <c r="J75">
+        <v>74.0</v>
+      </c>
+      <c r="K75">
+        <v>100.15</v>
+      </c>
+      <c r="L75">
+        <v>7411.0</v>
+      </c>
+      <c r="M75">
+        <v>100.15</v>
+      </c>
+      <c r="N75">
+        <v>200.3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>36</v>
+      </c>
+      <c r="P75" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75" t="s">
+        <v>37</v>
+      </c>
+      <c r="S75" t="s">
+        <v>65</v>
+      </c>
+      <c r="T75" t="s">
+        <v>36</v>
+      </c>
+      <c r="U75" t="s">
+        <v>36</v>
+      </c>
+      <c r="V75" t="s">
+        <v>36</v>
+      </c>
+      <c r="W75" t="s">
+        <v>39</v>
+      </c>
+      <c r="X75" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA75">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G76">
+        <v>103</v>
+      </c>
+      <c r="H76">
+        <v>1.0</v>
+      </c>
+      <c r="I76">
+        <v>0.0</v>
+      </c>
+      <c r="J76">
+        <v>11.0</v>
+      </c>
+      <c r="K76">
+        <v>0.11</v>
+      </c>
+      <c r="L76">
+        <v>0.11</v>
+      </c>
+      <c r="M76">
+        <v>1.14</v>
+      </c>
+      <c r="N76">
+        <v>1.14</v>
+      </c>
+      <c r="O76" t="s">
+        <v>36</v>
+      </c>
+      <c r="P76" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76" t="s">
+        <v>37</v>
+      </c>
+      <c r="S76" t="s">
+        <v>38</v>
+      </c>
+      <c r="T76" t="s">
+        <v>36</v>
+      </c>
+      <c r="U76" t="s">
+        <v>36</v>
+      </c>
+      <c r="V76" t="s">
+        <v>36</v>
+      </c>
+      <c r="W76" t="s">
+        <v>39</v>
+      </c>
+      <c r="X76" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA76">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+      <c r="H77">
+        <v>1.0</v>
+      </c>
+      <c r="I77">
+        <v>0.0</v>
+      </c>
+      <c r="J77">
+        <v>12.0</v>
+      </c>
+      <c r="K77">
+        <v>0.2</v>
+      </c>
+      <c r="L77">
+        <v>0.2</v>
+      </c>
+      <c r="M77">
+        <v>1.14</v>
+      </c>
+      <c r="N77">
+        <v>1.14</v>
+      </c>
+      <c r="O77" t="s">
+        <v>36</v>
+      </c>
+      <c r="P77" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77" t="s">
+        <v>37</v>
+      </c>
+      <c r="S77" t="s">
+        <v>38</v>
+      </c>
+      <c r="T77" t="s">
+        <v>36</v>
+      </c>
+      <c r="U77" t="s">
+        <v>36</v>
+      </c>
+      <c r="V77" t="s">
+        <v>36</v>
+      </c>
+      <c r="W77" t="s">
+        <v>39</v>
+      </c>
+      <c r="X77" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA77">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" t="s">
+        <v>46</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+      <c r="H78">
+        <v>1.0</v>
+      </c>
+      <c r="I78">
+        <v>0.0</v>
+      </c>
+      <c r="J78">
+        <v>13.0</v>
+      </c>
+      <c r="K78">
+        <v>0.27</v>
+      </c>
+      <c r="L78">
+        <v>0.27</v>
+      </c>
+      <c r="M78">
+        <v>1.14</v>
+      </c>
+      <c r="N78">
+        <v>1.14</v>
+      </c>
+      <c r="O78" t="s">
+        <v>36</v>
+      </c>
+      <c r="P78" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78" t="s">
+        <v>37</v>
+      </c>
+      <c r="S78" t="s">
+        <v>38</v>
+      </c>
+      <c r="T78" t="s">
+        <v>36</v>
+      </c>
+      <c r="U78" t="s">
+        <v>36</v>
+      </c>
+      <c r="V78" t="s">
+        <v>36</v>
+      </c>
+      <c r="W78" t="s">
+        <v>39</v>
+      </c>
+      <c r="X78" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA78">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>32</v>
+      </c>
+      <c r="D79" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" t="s">
+        <v>46</v>
+      </c>
+      <c r="G79">
+        <v>6</v>
+      </c>
+      <c r="H79">
+        <v>1.0</v>
+      </c>
+      <c r="I79">
+        <v>0.0</v>
+      </c>
+      <c r="J79">
+        <v>14.0</v>
+      </c>
+      <c r="K79">
+        <v>0.33</v>
+      </c>
+      <c r="L79">
+        <v>0.33</v>
+      </c>
+      <c r="M79">
+        <v>1.14</v>
+      </c>
+      <c r="N79">
+        <v>1.14</v>
+      </c>
+      <c r="O79" t="s">
+        <v>36</v>
+      </c>
+      <c r="P79" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79" t="s">
+        <v>37</v>
+      </c>
+      <c r="S79" t="s">
+        <v>38</v>
+      </c>
+      <c r="T79" t="s">
+        <v>36</v>
+      </c>
+      <c r="U79" t="s">
+        <v>36</v>
+      </c>
+      <c r="V79" t="s">
+        <v>36</v>
+      </c>
+      <c r="W79" t="s">
+        <v>39</v>
+      </c>
+      <c r="X79" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA79">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" t="s">
+        <v>67</v>
+      </c>
+      <c r="F80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80">
+        <v>9000008</v>
+      </c>
+      <c r="H80">
+        <v>2.0</v>
+      </c>
+      <c r="I80">
+        <v>0.0</v>
+      </c>
+      <c r="J80">
+        <v>16.0</v>
+      </c>
+      <c r="K80">
+        <v>0.33</v>
+      </c>
+      <c r="L80">
+        <v>0.66</v>
+      </c>
+      <c r="M80">
+        <v>0.33</v>
+      </c>
+      <c r="N80">
+        <v>0.66</v>
+      </c>
+      <c r="O80" t="s">
+        <v>36</v>
+      </c>
+      <c r="P80" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80" t="s">
+        <v>36</v>
+      </c>
+      <c r="S80" t="s">
+        <v>36</v>
+      </c>
+      <c r="T80" t="s">
+        <v>36</v>
+      </c>
+      <c r="U80" t="s">
+        <v>36</v>
+      </c>
+      <c r="V80" t="s">
+        <v>36</v>
+      </c>
+      <c r="W80" t="s">
+        <v>39</v>
+      </c>
+      <c r="X80" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA80">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81" t="s">
+        <v>67</v>
+      </c>
+      <c r="F81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G81">
+        <v>9000821</v>
+      </c>
+      <c r="H81">
+        <v>2.0</v>
+      </c>
+      <c r="I81">
+        <v>0.0</v>
+      </c>
+      <c r="J81">
+        <v>18.0</v>
+      </c>
+      <c r="K81">
+        <v>0.33</v>
+      </c>
+      <c r="L81">
+        <v>0.66</v>
+      </c>
+      <c r="M81">
+        <v>0.33</v>
+      </c>
+      <c r="N81">
+        <v>0.66</v>
+      </c>
+      <c r="O81" t="s">
+        <v>36</v>
+      </c>
+      <c r="P81" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81" t="s">
+        <v>36</v>
+      </c>
+      <c r="S81" t="s">
+        <v>36</v>
+      </c>
+      <c r="T81" t="s">
+        <v>36</v>
+      </c>
+      <c r="U81" t="s">
+        <v>36</v>
+      </c>
+      <c r="V81" t="s">
+        <v>36</v>
+      </c>
+      <c r="W81" t="s">
+        <v>39</v>
+      </c>
+      <c r="X81" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA81">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27">
+      <c r="A82" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82" t="s">
+        <v>67</v>
+      </c>
+      <c r="F82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G82">
+        <v>9000822</v>
+      </c>
+      <c r="H82">
+        <v>2.0</v>
+      </c>
+      <c r="I82">
+        <v>0.0</v>
+      </c>
+      <c r="J82">
+        <v>20.0</v>
+      </c>
+      <c r="K82">
+        <v>0.33</v>
+      </c>
+      <c r="L82">
+        <v>0.66</v>
+      </c>
+      <c r="M82">
+        <v>0.33</v>
+      </c>
+      <c r="N82">
+        <v>0.66</v>
+      </c>
+      <c r="O82" t="s">
+        <v>36</v>
+      </c>
+      <c r="P82" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82" t="s">
+        <v>36</v>
+      </c>
+      <c r="S82" t="s">
+        <v>36</v>
+      </c>
+      <c r="T82" t="s">
+        <v>36</v>
+      </c>
+      <c r="U82" t="s">
+        <v>36</v>
+      </c>
+      <c r="V82" t="s">
+        <v>36</v>
+      </c>
+      <c r="W82" t="s">
+        <v>39</v>
+      </c>
+      <c r="X82" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA82">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27">
+      <c r="A83" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83" t="s">
+        <v>63</v>
+      </c>
+      <c r="E83" t="s">
+        <v>67</v>
+      </c>
+      <c r="F83" t="s">
+        <v>35</v>
+      </c>
+      <c r="G83">
+        <v>9000823</v>
+      </c>
+      <c r="H83">
+        <v>2.0</v>
+      </c>
+      <c r="I83">
+        <v>0.0</v>
+      </c>
+      <c r="J83">
+        <v>22.0</v>
+      </c>
+      <c r="K83">
+        <v>0.33</v>
+      </c>
+      <c r="L83">
+        <v>0.66</v>
+      </c>
+      <c r="M83">
+        <v>0.33</v>
+      </c>
+      <c r="N83">
+        <v>0.66</v>
+      </c>
+      <c r="O83" t="s">
+        <v>36</v>
+      </c>
+      <c r="P83" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83" t="s">
+        <v>36</v>
+      </c>
+      <c r="S83" t="s">
+        <v>36</v>
+      </c>
+      <c r="T83" t="s">
+        <v>36</v>
+      </c>
+      <c r="U83" t="s">
+        <v>36</v>
+      </c>
+      <c r="V83" t="s">
+        <v>36</v>
+      </c>
+      <c r="W83" t="s">
+        <v>39</v>
+      </c>
+      <c r="X83" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA83">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27">
+      <c r="A84" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" t="s">
+        <v>32</v>
+      </c>
+      <c r="D84" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84" t="s">
+        <v>67</v>
+      </c>
+      <c r="F84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84">
+        <v>9000824</v>
+      </c>
+      <c r="H84">
+        <v>2.0</v>
+      </c>
+      <c r="I84">
+        <v>0.0</v>
+      </c>
+      <c r="J84">
+        <v>24.0</v>
+      </c>
+      <c r="K84">
+        <v>0.33</v>
+      </c>
+      <c r="L84">
+        <v>0.66</v>
+      </c>
+      <c r="M84">
+        <v>0.33</v>
+      </c>
+      <c r="N84">
+        <v>0.66</v>
+      </c>
+      <c r="O84" t="s">
+        <v>36</v>
+      </c>
+      <c r="P84" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84" t="s">
+        <v>36</v>
+      </c>
+      <c r="S84" t="s">
+        <v>36</v>
+      </c>
+      <c r="T84" t="s">
+        <v>36</v>
+      </c>
+      <c r="U84" t="s">
+        <v>36</v>
+      </c>
+      <c r="V84" t="s">
+        <v>36</v>
+      </c>
+      <c r="W84" t="s">
+        <v>39</v>
+      </c>
+      <c r="X84" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA84">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27">
+      <c r="A85" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" t="s">
+        <v>63</v>
+      </c>
+      <c r="E85" t="s">
+        <v>67</v>
+      </c>
+      <c r="F85" t="s">
+        <v>35</v>
+      </c>
+      <c r="G85">
+        <v>9000825</v>
+      </c>
+      <c r="H85">
+        <v>2.0</v>
+      </c>
+      <c r="I85">
+        <v>0.0</v>
+      </c>
+      <c r="J85">
+        <v>26.0</v>
+      </c>
+      <c r="K85">
+        <v>0.33</v>
+      </c>
+      <c r="L85">
+        <v>0.66</v>
+      </c>
+      <c r="M85">
+        <v>0.33</v>
+      </c>
+      <c r="N85">
+        <v>0.66</v>
+      </c>
+      <c r="O85" t="s">
+        <v>36</v>
+      </c>
+      <c r="P85" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85" t="s">
+        <v>36</v>
+      </c>
+      <c r="S85" t="s">
+        <v>36</v>
+      </c>
+      <c r="T85" t="s">
+        <v>36</v>
+      </c>
+      <c r="U85" t="s">
+        <v>36</v>
+      </c>
+      <c r="V85" t="s">
+        <v>36</v>
+      </c>
+      <c r="W85" t="s">
+        <v>39</v>
+      </c>
+      <c r="X85" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA85">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27">
+      <c r="A86" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" t="s">
+        <v>32</v>
+      </c>
+      <c r="D86" t="s">
+        <v>63</v>
+      </c>
+      <c r="E86" t="s">
+        <v>69</v>
+      </c>
+      <c r="F86" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86">
+        <v>10000826</v>
+      </c>
+      <c r="H86">
+        <v>69.0</v>
+      </c>
+      <c r="I86">
+        <v>0.0</v>
+      </c>
+      <c r="J86">
+        <v>95.0</v>
+      </c>
+      <c r="K86">
+        <v>0.33</v>
+      </c>
+      <c r="L86">
+        <v>22.77</v>
+      </c>
+      <c r="M86">
+        <v>0.33</v>
+      </c>
+      <c r="N86">
+        <v>22.77</v>
+      </c>
+      <c r="O86" t="s">
+        <v>36</v>
+      </c>
+      <c r="P86" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86" t="s">
+        <v>37</v>
+      </c>
+      <c r="S86" t="s">
+        <v>65</v>
+      </c>
+      <c r="T86" t="s">
+        <v>36</v>
+      </c>
+      <c r="U86" t="s">
+        <v>36</v>
+      </c>
+      <c r="V86" t="s">
+        <v>36</v>
+      </c>
+      <c r="W86" t="s">
+        <v>39</v>
+      </c>
+      <c r="X86" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA86">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27">
+      <c r="A87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" t="s">
+        <v>63</v>
+      </c>
+      <c r="E87" t="s">
+        <v>69</v>
+      </c>
+      <c r="F87" t="s">
+        <v>35</v>
+      </c>
+      <c r="G87">
+        <v>39</v>
+      </c>
+      <c r="H87">
+        <v>9.0</v>
+      </c>
+      <c r="I87">
+        <v>0.0</v>
+      </c>
+      <c r="J87">
+        <v>104.0</v>
+      </c>
+      <c r="K87">
+        <v>0.33</v>
+      </c>
+      <c r="L87">
+        <v>2.97</v>
+      </c>
+      <c r="M87">
+        <v>0.33</v>
+      </c>
+      <c r="N87">
+        <v>2.97</v>
+      </c>
+      <c r="O87" t="s">
+        <v>36</v>
+      </c>
+      <c r="P87" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87" t="s">
+        <v>36</v>
+      </c>
+      <c r="S87" t="s">
+        <v>65</v>
+      </c>
+      <c r="T87" t="s">
+        <v>36</v>
+      </c>
+      <c r="U87" t="s">
+        <v>36</v>
+      </c>
+      <c r="V87" t="s">
+        <v>36</v>
+      </c>
+      <c r="W87" t="s">
+        <v>39</v>
+      </c>
+      <c r="X87" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA87">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27">
+      <c r="A88" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88" t="s">
+        <v>63</v>
+      </c>
+      <c r="E88" t="s">
+        <v>69</v>
+      </c>
+      <c r="F88" t="s">
+        <v>35</v>
+      </c>
+      <c r="G88">
+        <v>10000827</v>
+      </c>
+      <c r="H88">
+        <v>9.0</v>
+      </c>
+      <c r="I88">
+        <v>0.0</v>
+      </c>
+      <c r="J88">
+        <v>113.0</v>
+      </c>
+      <c r="K88">
+        <v>0.33</v>
+      </c>
+      <c r="L88">
+        <v>2.97</v>
+      </c>
+      <c r="M88">
+        <v>0.33</v>
+      </c>
+      <c r="N88">
+        <v>2.97</v>
+      </c>
+      <c r="O88" t="s">
+        <v>36</v>
+      </c>
+      <c r="P88" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88" t="s">
+        <v>37</v>
+      </c>
+      <c r="S88" t="s">
+        <v>65</v>
+      </c>
+      <c r="T88" t="s">
+        <v>36</v>
+      </c>
+      <c r="U88" t="s">
+        <v>36</v>
+      </c>
+      <c r="V88" t="s">
+        <v>36</v>
+      </c>
+      <c r="W88" t="s">
+        <v>39</v>
+      </c>
+      <c r="X88" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA88">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27">
+      <c r="A89" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89" t="s">
+        <v>63</v>
+      </c>
+      <c r="E89" t="s">
+        <v>69</v>
+      </c>
+      <c r="F89" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89">
+        <v>10000817</v>
+      </c>
+      <c r="H89">
+        <v>7.0</v>
+      </c>
+      <c r="I89">
+        <v>0.0</v>
+      </c>
+      <c r="J89">
+        <v>120.0</v>
+      </c>
+      <c r="K89">
+        <v>0.33</v>
+      </c>
+      <c r="L89">
+        <v>2.31</v>
+      </c>
+      <c r="M89">
+        <v>0.33</v>
+      </c>
+      <c r="N89">
+        <v>2.31</v>
+      </c>
+      <c r="O89" t="s">
+        <v>36</v>
+      </c>
+      <c r="P89" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89" t="s">
+        <v>36</v>
+      </c>
+      <c r="S89" t="s">
+        <v>65</v>
+      </c>
+      <c r="T89" t="s">
+        <v>36</v>
+      </c>
+      <c r="U89" t="s">
+        <v>36</v>
+      </c>
+      <c r="V89" t="s">
+        <v>36</v>
+      </c>
+      <c r="W89" t="s">
+        <v>39</v>
+      </c>
+      <c r="X89" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA89">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27">
+      <c r="A90" t="s">
+        <v>77</v>
+      </c>
+      <c r="B90" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90" t="s">
+        <v>63</v>
+      </c>
+      <c r="E90" t="s">
+        <v>69</v>
+      </c>
+      <c r="F90" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90">
+        <v>10000823</v>
+      </c>
+      <c r="H90">
+        <v>7.0</v>
+      </c>
+      <c r="I90">
+        <v>0.0</v>
+      </c>
+      <c r="J90">
+        <v>127.0</v>
+      </c>
+      <c r="K90">
+        <v>0.33</v>
+      </c>
+      <c r="L90">
+        <v>2.31</v>
+      </c>
+      <c r="M90">
+        <v>0.33</v>
+      </c>
+      <c r="N90">
+        <v>2.31</v>
+      </c>
+      <c r="O90" t="s">
+        <v>36</v>
+      </c>
+      <c r="P90" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90" t="s">
+        <v>37</v>
+      </c>
+      <c r="S90" t="s">
+        <v>65</v>
+      </c>
+      <c r="T90" t="s">
+        <v>36</v>
+      </c>
+      <c r="U90" t="s">
+        <v>36</v>
+      </c>
+      <c r="V90" t="s">
+        <v>36</v>
+      </c>
+      <c r="W90" t="s">
+        <v>39</v>
+      </c>
+      <c r="X90" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA90">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27">
+      <c r="A91" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" t="s">
+        <v>32</v>
+      </c>
+      <c r="D91" t="s">
+        <v>63</v>
+      </c>
+      <c r="E91" t="s">
+        <v>74</v>
+      </c>
+      <c r="F91" t="s">
+        <v>35</v>
+      </c>
+      <c r="G91">
+        <v>10000836</v>
+      </c>
+      <c r="H91">
+        <v>4.0</v>
+      </c>
+      <c r="I91">
+        <v>0.0</v>
+      </c>
+      <c r="J91">
+        <v>131.0</v>
+      </c>
+      <c r="K91">
+        <v>0.33</v>
+      </c>
+      <c r="L91">
+        <v>1.32</v>
+      </c>
+      <c r="M91">
+        <v>0.33</v>
+      </c>
+      <c r="N91">
+        <v>1.32</v>
+      </c>
+      <c r="O91" t="s">
+        <v>36</v>
+      </c>
+      <c r="P91" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91" t="s">
+        <v>37</v>
+      </c>
+      <c r="S91" t="s">
+        <v>65</v>
+      </c>
+      <c r="T91" t="s">
+        <v>36</v>
+      </c>
+      <c r="U91" t="s">
+        <v>36</v>
+      </c>
+      <c r="V91" t="s">
+        <v>36</v>
+      </c>
+      <c r="W91" t="s">
+        <v>39</v>
+      </c>
+      <c r="X91" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA91">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27">
+      <c r="A92" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" t="s">
+        <v>78</v>
+      </c>
+      <c r="C92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92" t="s">
+        <v>63</v>
+      </c>
+      <c r="E92" t="s">
+        <v>74</v>
+      </c>
+      <c r="F92" t="s">
+        <v>35</v>
+      </c>
+      <c r="G92">
+        <v>10000838</v>
+      </c>
+      <c r="H92">
+        <v>4.0</v>
+      </c>
+      <c r="I92">
+        <v>0.0</v>
+      </c>
+      <c r="J92">
+        <v>135.0</v>
+      </c>
+      <c r="K92">
+        <v>0.33</v>
+      </c>
+      <c r="L92">
+        <v>1.32</v>
+      </c>
+      <c r="M92">
+        <v>0.33</v>
+      </c>
+      <c r="N92">
+        <v>1.32</v>
+      </c>
+      <c r="O92" t="s">
+        <v>36</v>
+      </c>
+      <c r="P92" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92" t="s">
+        <v>37</v>
+      </c>
+      <c r="S92" t="s">
+        <v>65</v>
+      </c>
+      <c r="T92" t="s">
+        <v>36</v>
+      </c>
+      <c r="U92" t="s">
+        <v>36</v>
+      </c>
+      <c r="V92" t="s">
+        <v>36</v>
+      </c>
+      <c r="W92" t="s">
+        <v>39</v>
+      </c>
+      <c r="X92" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA92">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27">
+      <c r="A93" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93" t="s">
+        <v>63</v>
+      </c>
+      <c r="E93" t="s">
+        <v>74</v>
+      </c>
+      <c r="F93" t="s">
+        <v>35</v>
+      </c>
+      <c r="G93">
+        <v>10000840</v>
+      </c>
+      <c r="H93">
+        <v>3.0</v>
+      </c>
+      <c r="I93">
+        <v>0.0</v>
+      </c>
+      <c r="J93">
+        <v>138.0</v>
+      </c>
+      <c r="K93">
+        <v>0.33</v>
+      </c>
+      <c r="L93">
+        <v>0.99</v>
+      </c>
+      <c r="M93">
+        <v>0.33</v>
+      </c>
+      <c r="N93">
+        <v>0.99</v>
+      </c>
+      <c r="O93" t="s">
+        <v>36</v>
+      </c>
+      <c r="P93" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93" t="s">
+        <v>37</v>
+      </c>
+      <c r="S93" t="s">
+        <v>65</v>
+      </c>
+      <c r="T93" t="s">
+        <v>36</v>
+      </c>
+      <c r="U93" t="s">
+        <v>36</v>
+      </c>
+      <c r="V93" t="s">
+        <v>36</v>
+      </c>
+      <c r="W93" t="s">
+        <v>39</v>
+      </c>
+      <c r="X93" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA93">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27">
+      <c r="A94" t="s">
+        <v>77</v>
+      </c>
+      <c r="B94" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" t="s">
+        <v>63</v>
+      </c>
+      <c r="E94" t="s">
+        <v>74</v>
+      </c>
+      <c r="F94" t="s">
+        <v>35</v>
+      </c>
+      <c r="G94">
+        <v>10000841</v>
+      </c>
+      <c r="H94">
+        <v>3.0</v>
+      </c>
+      <c r="I94">
+        <v>0.0</v>
+      </c>
+      <c r="J94">
+        <v>141.0</v>
+      </c>
+      <c r="K94">
+        <v>0.33</v>
+      </c>
+      <c r="L94">
+        <v>0.99</v>
+      </c>
+      <c r="M94">
+        <v>0.33</v>
+      </c>
+      <c r="N94">
+        <v>0.99</v>
+      </c>
+      <c r="O94" t="s">
+        <v>36</v>
+      </c>
+      <c r="P94" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94" t="s">
+        <v>37</v>
+      </c>
+      <c r="S94" t="s">
+        <v>65</v>
+      </c>
+      <c r="T94" t="s">
+        <v>36</v>
+      </c>
+      <c r="U94" t="s">
+        <v>36</v>
+      </c>
+      <c r="V94" t="s">
+        <v>36</v>
+      </c>
+      <c r="W94" t="s">
+        <v>39</v>
+      </c>
+      <c r="X94" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA94">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27">
+      <c r="A95" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95" t="s">
+        <v>78</v>
+      </c>
+      <c r="C95" t="s">
+        <v>32</v>
+      </c>
+      <c r="D95" t="s">
+        <v>63</v>
+      </c>
+      <c r="E95" t="s">
+        <v>74</v>
+      </c>
+      <c r="F95" t="s">
+        <v>35</v>
+      </c>
+      <c r="G95">
+        <v>10000842</v>
+      </c>
+      <c r="H95">
+        <v>3.0</v>
+      </c>
+      <c r="I95">
+        <v>0.0</v>
+      </c>
+      <c r="J95">
+        <v>144.0</v>
+      </c>
+      <c r="K95">
+        <v>0.33</v>
+      </c>
+      <c r="L95">
+        <v>0.99</v>
+      </c>
+      <c r="M95">
+        <v>0.33</v>
+      </c>
+      <c r="N95">
+        <v>0.99</v>
+      </c>
+      <c r="O95" t="s">
+        <v>36</v>
+      </c>
+      <c r="P95" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95" t="s">
+        <v>37</v>
+      </c>
+      <c r="S95" t="s">
+        <v>65</v>
+      </c>
+      <c r="T95" t="s">
+        <v>36</v>
+      </c>
+      <c r="U95" t="s">
+        <v>36</v>
+      </c>
+      <c r="V95" t="s">
+        <v>36</v>
+      </c>
+      <c r="W95" t="s">
+        <v>39</v>
+      </c>
+      <c r="X95" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA95">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27">
+      <c r="A96" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96" t="s">
+        <v>83</v>
+      </c>
+      <c r="C96" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96" t="s">
+        <v>63</v>
+      </c>
+      <c r="E96" t="s">
+        <v>74</v>
+      </c>
+      <c r="F96" t="s">
+        <v>35</v>
+      </c>
+      <c r="G96">
+        <v>10000839</v>
+      </c>
+      <c r="H96">
+        <v>3.0</v>
+      </c>
+      <c r="I96">
+        <v>0.0</v>
+      </c>
+      <c r="J96">
+        <v>3.0</v>
+      </c>
+      <c r="K96">
+        <v>12.2</v>
+      </c>
+      <c r="L96">
+        <v>36.6</v>
+      </c>
+      <c r="M96">
+        <v>12.2</v>
+      </c>
+      <c r="N96">
+        <v>36.6</v>
+      </c>
+      <c r="O96" t="s">
+        <v>36</v>
+      </c>
+      <c r="P96" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96" t="s">
+        <v>37</v>
+      </c>
+      <c r="S96" t="s">
+        <v>65</v>
+      </c>
+      <c r="T96" t="s">
+        <v>36</v>
+      </c>
+      <c r="U96" t="s">
+        <v>36</v>
+      </c>
+      <c r="V96" t="s">
+        <v>36</v>
+      </c>
+      <c r="W96" t="s">
+        <v>39</v>
+      </c>
+      <c r="X96" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA96">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27">
+      <c r="A97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B97" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" t="s">
+        <v>63</v>
+      </c>
+      <c r="E97" t="s">
+        <v>67</v>
+      </c>
+      <c r="F97" t="s">
+        <v>35</v>
+      </c>
+      <c r="G97">
+        <v>9000826</v>
+      </c>
+      <c r="H97">
+        <v>1.0</v>
+      </c>
+      <c r="I97">
+        <v>0.0</v>
+      </c>
+      <c r="J97">
+        <v>1.0</v>
+      </c>
+      <c r="K97">
+        <v>3.36</v>
+      </c>
+      <c r="L97">
+        <v>3.36</v>
+      </c>
+      <c r="M97">
+        <v>3.36</v>
+      </c>
+      <c r="N97">
+        <v>3.36</v>
+      </c>
+      <c r="O97" t="s">
+        <v>36</v>
+      </c>
+      <c r="P97" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97" t="s">
+        <v>36</v>
+      </c>
+      <c r="S97" t="s">
+        <v>36</v>
+      </c>
+      <c r="T97" t="s">
+        <v>36</v>
+      </c>
+      <c r="U97" t="s">
+        <v>36</v>
+      </c>
+      <c r="V97" t="s">
+        <v>36</v>
+      </c>
+      <c r="W97" t="s">
+        <v>39</v>
+      </c>
+      <c r="X97" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA97">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27">
+      <c r="A98" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" t="s">
+        <v>32</v>
+      </c>
+      <c r="D98" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98" t="s">
+        <v>69</v>
+      </c>
+      <c r="F98" t="s">
+        <v>35</v>
+      </c>
+      <c r="G98">
+        <v>38</v>
+      </c>
+      <c r="H98">
+        <v>5.0</v>
+      </c>
+      <c r="I98">
+        <v>0.0</v>
+      </c>
+      <c r="J98">
+        <v>5.0</v>
+      </c>
+      <c r="K98">
+        <v>3.65</v>
+      </c>
+      <c r="L98">
+        <v>18.25</v>
+      </c>
+      <c r="M98">
+        <v>3.65</v>
+      </c>
+      <c r="N98">
+        <v>18.25</v>
+      </c>
+      <c r="O98" t="s">
+        <v>36</v>
+      </c>
+      <c r="P98" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98" t="s">
+        <v>36</v>
+      </c>
+      <c r="S98" t="s">
+        <v>65</v>
+      </c>
+      <c r="T98" t="s">
+        <v>36</v>
+      </c>
+      <c r="U98" t="s">
+        <v>36</v>
+      </c>
+      <c r="V98" t="s">
+        <v>36</v>
+      </c>
+      <c r="W98" t="s">
+        <v>39</v>
+      </c>
+      <c r="X98" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA98">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27">
+      <c r="A99" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" t="s">
+        <v>63</v>
+      </c>
+      <c r="E99" t="s">
+        <v>69</v>
+      </c>
+      <c r="F99" t="s">
+        <v>35</v>
+      </c>
+      <c r="G99">
+        <v>38</v>
+      </c>
+      <c r="H99">
+        <v>10.0</v>
+      </c>
+      <c r="I99">
+        <v>0.0</v>
+      </c>
+      <c r="J99">
+        <v>10.0</v>
+      </c>
+      <c r="K99">
+        <v>6.35</v>
+      </c>
+      <c r="L99">
+        <v>63.5</v>
+      </c>
+      <c r="M99">
+        <v>6.35</v>
+      </c>
+      <c r="N99">
+        <v>63.5</v>
+      </c>
+      <c r="O99" t="s">
+        <v>36</v>
+      </c>
+      <c r="P99" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99" t="s">
+        <v>36</v>
+      </c>
+      <c r="S99" t="s">
+        <v>65</v>
+      </c>
+      <c r="T99" t="s">
+        <v>36</v>
+      </c>
+      <c r="U99" t="s">
+        <v>36</v>
+      </c>
+      <c r="V99" t="s">
+        <v>36</v>
+      </c>
+      <c r="W99" t="s">
+        <v>39</v>
+      </c>
+      <c r="X99" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA99">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27">
+      <c r="A100" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" t="s">
+        <v>32</v>
+      </c>
+      <c r="D100" t="s">
+        <v>63</v>
+      </c>
+      <c r="E100" t="s">
+        <v>69</v>
+      </c>
+      <c r="F100" t="s">
+        <v>35</v>
+      </c>
+      <c r="G100">
+        <v>10000818</v>
+      </c>
+      <c r="H100">
+        <v>9.0</v>
+      </c>
+      <c r="I100">
+        <v>0.0</v>
+      </c>
+      <c r="J100">
+        <v>19.0</v>
+      </c>
+      <c r="K100">
+        <v>6.35</v>
+      </c>
+      <c r="L100">
+        <v>57.15</v>
+      </c>
+      <c r="M100">
+        <v>6.35</v>
+      </c>
+      <c r="N100">
+        <v>57.15</v>
+      </c>
+      <c r="O100" t="s">
+        <v>36</v>
+      </c>
+      <c r="P100" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100" t="s">
+        <v>36</v>
+      </c>
+      <c r="S100" t="s">
+        <v>65</v>
+      </c>
+      <c r="T100" t="s">
+        <v>36</v>
+      </c>
+      <c r="U100" t="s">
+        <v>36</v>
+      </c>
+      <c r="V100" t="s">
+        <v>36</v>
+      </c>
+      <c r="W100" t="s">
+        <v>39</v>
+      </c>
+      <c r="X100" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA100">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27">
+      <c r="A101" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" t="s">
+        <v>91</v>
+      </c>
+      <c r="C101" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" t="s">
+        <v>63</v>
+      </c>
+      <c r="E101" t="s">
+        <v>69</v>
+      </c>
+      <c r="F101" t="s">
+        <v>35</v>
+      </c>
+      <c r="G101">
+        <v>10000824</v>
+      </c>
+      <c r="H101">
+        <v>9.0</v>
+      </c>
+      <c r="I101">
+        <v>0.0</v>
+      </c>
+      <c r="J101">
+        <v>28.0</v>
+      </c>
+      <c r="K101">
+        <v>6.35</v>
+      </c>
+      <c r="L101">
+        <v>57.15</v>
+      </c>
+      <c r="M101">
+        <v>6.35</v>
+      </c>
+      <c r="N101">
+        <v>57.15</v>
+      </c>
+      <c r="O101" t="s">
+        <v>36</v>
+      </c>
+      <c r="P101" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101" t="s">
+        <v>37</v>
+      </c>
+      <c r="S101" t="s">
+        <v>65</v>
+      </c>
+      <c r="T101" t="s">
+        <v>36</v>
+      </c>
+      <c r="U101" t="s">
+        <v>36</v>
+      </c>
+      <c r="V101" t="s">
+        <v>36</v>
+      </c>
+      <c r="W101" t="s">
+        <v>39</v>
+      </c>
+      <c r="X101" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA101">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27">
+      <c r="A102" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" t="s">
+        <v>94</v>
+      </c>
+      <c r="C102" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" t="s">
+        <v>63</v>
+      </c>
+      <c r="E102" t="s">
+        <v>69</v>
+      </c>
+      <c r="F102" t="s">
+        <v>35</v>
+      </c>
+      <c r="G102">
+        <v>10000827</v>
+      </c>
+      <c r="H102">
+        <v>6.0</v>
+      </c>
+      <c r="I102">
+        <v>0.0</v>
+      </c>
+      <c r="J102">
+        <v>6.0</v>
+      </c>
+      <c r="K102">
+        <v>1.23</v>
+      </c>
+      <c r="L102">
+        <v>7.38</v>
+      </c>
+      <c r="M102">
+        <v>1.23</v>
+      </c>
+      <c r="N102">
+        <v>7.38</v>
+      </c>
+      <c r="O102" t="s">
+        <v>36</v>
+      </c>
+      <c r="P102" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102" t="s">
+        <v>37</v>
+      </c>
+      <c r="S102" t="s">
+        <v>65</v>
+      </c>
+      <c r="T102" t="s">
+        <v>36</v>
+      </c>
+      <c r="U102" t="s">
+        <v>36</v>
+      </c>
+      <c r="V102" t="s">
+        <v>36</v>
+      </c>
+      <c r="W102" t="s">
+        <v>39</v>
+      </c>
+      <c r="X102" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA102">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27">
+      <c r="A103" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103" t="s">
+        <v>97</v>
+      </c>
+      <c r="F103" t="s">
+        <v>36</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0.0</v>
+      </c>
+      <c r="I103">
+        <v>5.0</v>
+      </c>
+      <c r="J103">
+        <v>-7.0</v>
+      </c>
+      <c r="K103">
+        <v>32.26</v>
+      </c>
+      <c r="L103">
+        <v>-225.82</v>
+      </c>
+      <c r="M103">
+        <v>32.26</v>
+      </c>
+      <c r="N103">
+        <v>161.3</v>
+      </c>
+      <c r="O103" t="s">
+        <v>98</v>
+      </c>
+      <c r="P103" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q103">
+        <v>1841</v>
+      </c>
+      <c r="R103" t="s">
+        <v>37</v>
+      </c>
+      <c r="S103" t="s">
+        <v>48</v>
+      </c>
+      <c r="T103" t="s">
+        <v>36</v>
+      </c>
+      <c r="U103" t="s">
+        <v>36</v>
+      </c>
+      <c r="V103" t="s">
+        <v>36</v>
+      </c>
+      <c r="W103">
+        <v>1316640745</v>
+      </c>
+      <c r="X103" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA103">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F104" t="s">
+        <v>36</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0.0</v>
+      </c>
+      <c r="I104">
+        <v>10.0</v>
+      </c>
+      <c r="J104">
+        <v>-13.0</v>
+      </c>
+      <c r="K104">
+        <v>16.13</v>
+      </c>
+      <c r="L104">
+        <v>-209.69</v>
+      </c>
+      <c r="M104">
+        <v>16.13</v>
+      </c>
+      <c r="N104">
+        <v>161.3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>98</v>
+      </c>
+      <c r="P104" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q104">
+        <v>1842</v>
+      </c>
+      <c r="R104" t="s">
+        <v>37</v>
+      </c>
+      <c r="S104" t="s">
+        <v>48</v>
+      </c>
+      <c r="T104" t="s">
+        <v>36</v>
+      </c>
+      <c r="U104" t="s">
+        <v>36</v>
+      </c>
+      <c r="V104" t="s">
+        <v>36</v>
+      </c>
+      <c r="W104">
+        <v>1316640745</v>
+      </c>
+      <c r="X104" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA104">
+        <v>1431</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A2:AA2"/>
+    <mergeCell ref="B1:Z1"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
